--- a/stocks_list.xlsx
+++ b/stocks_list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZP5922\Documents\Revolut\Revolut_app\rev_app\01_STOCK_LIST\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZP5922\Documents\Trading\Revolut\Revolut_app\rev_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E518C0-BF15-4B49-B319-61D2462C8347}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653CD8A7-6B3E-4E3E-B2E4-C95FAB7A7CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-135" windowWidth="29040" windowHeight="15990" xr2:uid="{336D9519-7221-4D39-B2E3-6B9C561E822A}"/>
   </bookViews>
@@ -6279,10 +6279,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B53A6498-E43B-41D9-8831-3103CA3FE4F1}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F913"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D914" sqref="D914"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -6314,7 +6315,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -6334,7 +6335,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -6354,7 +6355,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -6374,7 +6375,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -6394,7 +6395,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -6414,7 +6415,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -6434,7 +6435,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -6454,7 +6455,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -6474,7 +6475,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -6494,7 +6495,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -6514,7 +6515,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -6534,7 +6535,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>47</v>
       </c>
@@ -6554,7 +6555,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>49</v>
       </c>
@@ -6574,7 +6575,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -6594,7 +6595,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>54</v>
       </c>
@@ -6614,7 +6615,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>57</v>
       </c>
@@ -6634,7 +6635,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>60</v>
       </c>
@@ -6654,7 +6655,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>64</v>
       </c>
@@ -6674,7 +6675,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>67</v>
       </c>
@@ -6694,7 +6695,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>69</v>
       </c>
@@ -6714,7 +6715,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>72</v>
       </c>
@@ -6734,7 +6735,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>76</v>
       </c>
@@ -6754,7 +6755,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>78</v>
       </c>
@@ -6774,7 +6775,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>81</v>
       </c>
@@ -6794,7 +6795,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>83</v>
       </c>
@@ -6814,7 +6815,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>86</v>
       </c>
@@ -6834,7 +6835,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>90</v>
       </c>
@@ -6854,7 +6855,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>93</v>
       </c>
@@ -6874,7 +6875,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>95</v>
       </c>
@@ -6894,7 +6895,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>97</v>
       </c>
@@ -6914,7 +6915,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>99</v>
       </c>
@@ -6934,7 +6935,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>101</v>
       </c>
@@ -6954,7 +6955,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>104</v>
       </c>
@@ -6974,7 +6975,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>107</v>
       </c>
@@ -6994,7 +6995,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>109</v>
       </c>
@@ -7014,7 +7015,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>112</v>
       </c>
@@ -7034,7 +7035,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>115</v>
       </c>
@@ -7054,7 +7055,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>118</v>
       </c>
@@ -7074,7 +7075,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>121</v>
       </c>
@@ -7094,7 +7095,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>125</v>
       </c>
@@ -7114,7 +7115,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>129</v>
       </c>
@@ -7134,7 +7135,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>132</v>
       </c>
@@ -7154,7 +7155,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>134</v>
       </c>
@@ -7174,7 +7175,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>137</v>
       </c>
@@ -7194,7 +7195,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>139</v>
       </c>
@@ -7214,7 +7215,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>141</v>
       </c>
@@ -7234,7 +7235,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>144</v>
       </c>
@@ -7254,7 +7255,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>146</v>
       </c>
@@ -7274,7 +7275,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>148</v>
       </c>
@@ -7294,7 +7295,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>151</v>
       </c>
@@ -7314,7 +7315,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>153</v>
       </c>
@@ -7334,7 +7335,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>155</v>
       </c>
@@ -7354,7 +7355,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>157</v>
       </c>
@@ -7374,7 +7375,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>159</v>
       </c>
@@ -7394,7 +7395,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>162</v>
       </c>
@@ -7414,7 +7415,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>165</v>
       </c>
@@ -7434,7 +7435,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>169</v>
       </c>
@@ -7454,7 +7455,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>171</v>
       </c>
@@ -7474,7 +7475,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>174</v>
       </c>
@@ -7494,7 +7495,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>176</v>
       </c>
@@ -7514,7 +7515,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>178</v>
       </c>
@@ -7534,7 +7535,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>180</v>
       </c>
@@ -7554,7 +7555,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>182</v>
       </c>
@@ -7574,7 +7575,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>184</v>
       </c>
@@ -7594,7 +7595,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>186</v>
       </c>
@@ -7614,7 +7615,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>189</v>
       </c>
@@ -7634,7 +7635,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>191</v>
       </c>
@@ -7654,7 +7655,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>193</v>
       </c>
@@ -7674,7 +7675,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>196</v>
       </c>
@@ -7694,7 +7695,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>198</v>
       </c>
@@ -7714,7 +7715,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>200</v>
       </c>
@@ -7734,7 +7735,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>204</v>
       </c>
@@ -7754,7 +7755,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>206</v>
       </c>
@@ -7774,7 +7775,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>208</v>
       </c>
@@ -7794,7 +7795,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>210</v>
       </c>
@@ -7814,7 +7815,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>213</v>
       </c>
@@ -7834,7 +7835,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>216</v>
       </c>
@@ -7854,7 +7855,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>219</v>
       </c>
@@ -7874,7 +7875,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>221</v>
       </c>
@@ -7894,7 +7895,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>223</v>
       </c>
@@ -7914,7 +7915,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>225</v>
       </c>
@@ -7934,7 +7935,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>227</v>
       </c>
@@ -7954,7 +7955,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>229</v>
       </c>
@@ -7974,7 +7975,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>232</v>
       </c>
@@ -7994,7 +7995,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>235</v>
       </c>
@@ -8014,7 +8015,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>237</v>
       </c>
@@ -8034,7 +8035,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>240</v>
       </c>
@@ -8054,7 +8055,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>243</v>
       </c>
@@ -8074,7 +8075,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>245</v>
       </c>
@@ -8094,7 +8095,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>247</v>
       </c>
@@ -8114,7 +8115,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>249</v>
       </c>
@@ -8134,7 +8135,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>251</v>
       </c>
@@ -8154,7 +8155,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>253</v>
       </c>
@@ -8174,7 +8175,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>256</v>
       </c>
@@ -8194,7 +8195,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>260</v>
       </c>
@@ -8214,7 +8215,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>262</v>
       </c>
@@ -8234,7 +8235,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>264</v>
       </c>
@@ -8254,7 +8255,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>266</v>
       </c>
@@ -8274,7 +8275,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>268</v>
       </c>
@@ -8294,7 +8295,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>270</v>
       </c>
@@ -8314,7 +8315,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>272</v>
       </c>
@@ -8334,7 +8335,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>275</v>
       </c>
@@ -8354,7 +8355,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>277</v>
       </c>
@@ -8374,7 +8375,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>279</v>
       </c>
@@ -8394,7 +8395,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>281</v>
       </c>
@@ -8414,7 +8415,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>283</v>
       </c>
@@ -8434,7 +8435,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>285</v>
       </c>
@@ -8454,7 +8455,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>287</v>
       </c>
@@ -8474,7 +8475,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>289</v>
       </c>
@@ -8494,7 +8495,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>291</v>
       </c>
@@ -8514,7 +8515,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>294</v>
       </c>
@@ -8534,7 +8535,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>297</v>
       </c>
@@ -8554,7 +8555,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>299</v>
       </c>
@@ -8574,7 +8575,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>301</v>
       </c>
@@ -8594,7 +8595,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>303</v>
       </c>
@@ -8614,7 +8615,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>305</v>
       </c>
@@ -8634,7 +8635,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>307</v>
       </c>
@@ -8654,7 +8655,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>310</v>
       </c>
@@ -8674,7 +8675,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>312</v>
       </c>
@@ -8694,7 +8695,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>314</v>
       </c>
@@ -8714,7 +8715,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>317</v>
       </c>
@@ -8734,7 +8735,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>320</v>
       </c>
@@ -8754,7 +8755,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>322</v>
       </c>
@@ -8774,7 +8775,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>324</v>
       </c>
@@ -8794,7 +8795,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>326</v>
       </c>
@@ -8814,7 +8815,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>328</v>
       </c>
@@ -8834,7 +8835,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>330</v>
       </c>
@@ -8854,7 +8855,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>332</v>
       </c>
@@ -8874,7 +8875,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>334</v>
       </c>
@@ -8894,7 +8895,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>336</v>
       </c>
@@ -8914,7 +8915,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>338</v>
       </c>
@@ -8934,7 +8935,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>341</v>
       </c>
@@ -8954,7 +8955,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>344</v>
       </c>
@@ -8974,7 +8975,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>346</v>
       </c>
@@ -8994,7 +8995,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>348</v>
       </c>
@@ -9014,7 +9015,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>350</v>
       </c>
@@ -9034,7 +9035,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>352</v>
       </c>
@@ -9054,7 +9055,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>354</v>
       </c>
@@ -9074,7 +9075,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>356</v>
       </c>
@@ -9094,7 +9095,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>359</v>
       </c>
@@ -9114,7 +9115,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>360</v>
       </c>
@@ -9134,7 +9135,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>362</v>
       </c>
@@ -9154,7 +9155,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>364</v>
       </c>
@@ -9174,7 +9175,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>366</v>
       </c>
@@ -9194,7 +9195,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>368</v>
       </c>
@@ -9214,7 +9215,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>371</v>
       </c>
@@ -9234,7 +9235,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>373</v>
       </c>
@@ -9254,7 +9255,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>375</v>
       </c>
@@ -9274,7 +9275,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>377</v>
       </c>
@@ -9294,7 +9295,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>379</v>
       </c>
@@ -9314,7 +9315,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>383</v>
       </c>
@@ -9334,7 +9335,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>386</v>
       </c>
@@ -9354,7 +9355,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>388</v>
       </c>
@@ -9374,7 +9375,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>390</v>
       </c>
@@ -9394,7 +9395,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>393</v>
       </c>
@@ -9414,7 +9415,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>396</v>
       </c>
@@ -9434,7 +9435,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>399</v>
       </c>
@@ -9454,7 +9455,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>401</v>
       </c>
@@ -9474,7 +9475,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>403</v>
       </c>
@@ -9494,7 +9495,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>405</v>
       </c>
@@ -9514,7 +9515,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>408</v>
       </c>
@@ -9534,7 +9535,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>410</v>
       </c>
@@ -9554,7 +9555,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>412</v>
       </c>
@@ -9574,7 +9575,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>414</v>
       </c>
@@ -9594,7 +9595,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>416</v>
       </c>
@@ -9614,7 +9615,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>419</v>
       </c>
@@ -9634,7 +9635,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>421</v>
       </c>
@@ -9654,7 +9655,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>423</v>
       </c>
@@ -9674,7 +9675,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>425</v>
       </c>
@@ -9694,7 +9695,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>427</v>
       </c>
@@ -9714,7 +9715,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>429</v>
       </c>
@@ -9734,7 +9735,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>432</v>
       </c>
@@ -9754,7 +9755,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>434</v>
       </c>
@@ -9774,7 +9775,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>436</v>
       </c>
@@ -9794,7 +9795,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>438</v>
       </c>
@@ -9814,7 +9815,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>440</v>
       </c>
@@ -9834,7 +9835,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>442</v>
       </c>
@@ -9854,7 +9855,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>444</v>
       </c>
@@ -9874,7 +9875,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>446</v>
       </c>
@@ -9894,7 +9895,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>448</v>
       </c>
@@ -9914,7 +9915,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>451</v>
       </c>
@@ -9934,7 +9935,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>453</v>
       </c>
@@ -9954,7 +9955,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>456</v>
       </c>
@@ -9974,7 +9975,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>458</v>
       </c>
@@ -9994,7 +9995,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>460</v>
       </c>
@@ -10014,7 +10015,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>462</v>
       </c>
@@ -10034,7 +10035,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>464</v>
       </c>
@@ -10054,7 +10055,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>466</v>
       </c>
@@ -10074,7 +10075,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>468</v>
       </c>
@@ -10094,7 +10095,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>470</v>
       </c>
@@ -10114,7 +10115,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>472</v>
       </c>
@@ -10134,7 +10135,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>474</v>
       </c>
@@ -10154,7 +10155,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>476</v>
       </c>
@@ -10174,7 +10175,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>478</v>
       </c>
@@ -10194,7 +10195,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>480</v>
       </c>
@@ -10214,7 +10215,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>482</v>
       </c>
@@ -10234,7 +10235,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>484</v>
       </c>
@@ -10254,7 +10255,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>486</v>
       </c>
@@ -10274,7 +10275,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>488</v>
       </c>
@@ -10294,7 +10295,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>490</v>
       </c>
@@ -10314,7 +10315,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>492</v>
       </c>
@@ -10334,7 +10335,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>494</v>
       </c>
@@ -10354,7 +10355,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>496</v>
       </c>
@@ -10374,7 +10375,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>498</v>
       </c>
@@ -10394,7 +10395,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>500</v>
       </c>
@@ -10414,7 +10415,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>502</v>
       </c>
@@ -10434,7 +10435,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>504</v>
       </c>
@@ -10454,7 +10455,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>506</v>
       </c>
@@ -10474,7 +10475,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>508</v>
       </c>
@@ -10494,7 +10495,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>510</v>
       </c>
@@ -10514,7 +10515,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>512</v>
       </c>
@@ -10534,7 +10535,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>515</v>
       </c>
@@ -10554,7 +10555,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>517</v>
       </c>
@@ -10574,7 +10575,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>519</v>
       </c>
@@ -10594,7 +10595,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>521</v>
       </c>
@@ -10614,7 +10615,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>523</v>
       </c>
@@ -10634,7 +10635,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>525</v>
       </c>
@@ -10654,7 +10655,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>527</v>
       </c>
@@ -10674,7 +10675,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>529</v>
       </c>
@@ -10694,7 +10695,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>531</v>
       </c>
@@ -10714,7 +10715,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>533</v>
       </c>
@@ -10734,7 +10735,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>535</v>
       </c>
@@ -10754,7 +10755,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>538</v>
       </c>
@@ -10774,7 +10775,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>540</v>
       </c>
@@ -10794,7 +10795,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>542</v>
       </c>
@@ -10814,7 +10815,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>545</v>
       </c>
@@ -10834,7 +10835,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>547</v>
       </c>
@@ -10854,7 +10855,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>549</v>
       </c>
@@ -10874,7 +10875,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>552</v>
       </c>
@@ -10894,7 +10895,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>555</v>
       </c>
@@ -10914,7 +10915,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>558</v>
       </c>
@@ -10934,7 +10935,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>560</v>
       </c>
@@ -10954,7 +10955,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>562</v>
       </c>
@@ -10974,7 +10975,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>564</v>
       </c>
@@ -10994,7 +10995,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>566</v>
       </c>
@@ -11014,7 +11015,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>568</v>
       </c>
@@ -11034,7 +11035,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>570</v>
       </c>
@@ -11054,7 +11055,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>572</v>
       </c>
@@ -11074,7 +11075,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>574</v>
       </c>
@@ -11094,7 +11095,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>577</v>
       </c>
@@ -11114,7 +11115,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>579</v>
       </c>
@@ -11134,7 +11135,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>581</v>
       </c>
@@ -11154,7 +11155,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>584</v>
       </c>
@@ -11174,7 +11175,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>586</v>
       </c>
@@ -11194,7 +11195,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>588</v>
       </c>
@@ -11214,7 +11215,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>591</v>
       </c>
@@ -11234,7 +11235,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>593</v>
       </c>
@@ -11254,7 +11255,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>595</v>
       </c>
@@ -11274,7 +11275,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>598</v>
       </c>
@@ -11294,7 +11295,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>600</v>
       </c>
@@ -11314,7 +11315,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>602</v>
       </c>
@@ -11334,7 +11335,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>604</v>
       </c>
@@ -11354,7 +11355,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>604</v>
       </c>
@@ -11374,7 +11375,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>607</v>
       </c>
@@ -11394,7 +11395,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>609</v>
       </c>
@@ -11425,7 +11426,7 @@
         <v>151.62</v>
       </c>
       <c r="D257" t="s">
-        <v>613</v>
+        <v>17</v>
       </c>
       <c r="E257" t="s">
         <v>92</v>
@@ -11434,7 +11435,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>614</v>
       </c>
@@ -11454,7 +11455,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>616</v>
       </c>
@@ -11474,7 +11475,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>618</v>
       </c>
@@ -11494,7 +11495,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>620</v>
       </c>
@@ -11514,7 +11515,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>622</v>
       </c>
@@ -11534,7 +11535,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>624</v>
       </c>
@@ -11554,7 +11555,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>626</v>
       </c>
@@ -11574,7 +11575,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>628</v>
       </c>
@@ -11594,7 +11595,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>630</v>
       </c>
@@ -11614,7 +11615,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>632</v>
       </c>
@@ -11634,7 +11635,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>634</v>
       </c>
@@ -11654,7 +11655,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>636</v>
       </c>
@@ -11674,7 +11675,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>638</v>
       </c>
@@ -11694,7 +11695,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>640</v>
       </c>
@@ -11714,7 +11715,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>642</v>
       </c>
@@ -11734,7 +11735,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>644</v>
       </c>
@@ -11754,7 +11755,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>646</v>
       </c>
@@ -11774,7 +11775,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>648</v>
       </c>
@@ -11794,7 +11795,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>650</v>
       </c>
@@ -11814,7 +11815,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>652</v>
       </c>
@@ -11834,7 +11835,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>654</v>
       </c>
@@ -11854,7 +11855,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>656</v>
       </c>
@@ -11874,7 +11875,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>658</v>
       </c>
@@ -11894,7 +11895,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>660</v>
       </c>
@@ -11914,7 +11915,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>662</v>
       </c>
@@ -11934,7 +11935,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>664</v>
       </c>
@@ -11954,7 +11955,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>666</v>
       </c>
@@ -11974,7 +11975,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>668</v>
       </c>
@@ -11994,7 +11995,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>670</v>
       </c>
@@ -12014,7 +12015,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>672</v>
       </c>
@@ -12034,7 +12035,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>674</v>
       </c>
@@ -12054,7 +12055,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>676</v>
       </c>
@@ -12074,7 +12075,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>678</v>
       </c>
@@ -12094,7 +12095,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>680</v>
       </c>
@@ -12114,7 +12115,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>682</v>
       </c>
@@ -12134,7 +12135,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>684</v>
       </c>
@@ -12154,7 +12155,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>686</v>
       </c>
@@ -12174,7 +12175,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>688</v>
       </c>
@@ -12194,7 +12195,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>690</v>
       </c>
@@ -12214,7 +12215,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>692</v>
       </c>
@@ -12234,7 +12235,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>694</v>
       </c>
@@ -12254,7 +12255,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>696</v>
       </c>
@@ -12274,7 +12275,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>698</v>
       </c>
@@ -12294,7 +12295,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>700</v>
       </c>
@@ -12314,7 +12315,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>702</v>
       </c>
@@ -12334,7 +12335,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>704</v>
       </c>
@@ -12354,7 +12355,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>706</v>
       </c>
@@ -12374,7 +12375,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>708</v>
       </c>
@@ -12394,7 +12395,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>710</v>
       </c>
@@ -12414,7 +12415,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>712</v>
       </c>
@@ -12434,7 +12435,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>714</v>
       </c>
@@ -12454,7 +12455,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>716</v>
       </c>
@@ -12474,7 +12475,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>718</v>
       </c>
@@ -12494,7 +12495,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>720</v>
       </c>
@@ -12514,7 +12515,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>723</v>
       </c>
@@ -12534,7 +12535,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>725</v>
       </c>
@@ -12554,7 +12555,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>727</v>
       </c>
@@ -12574,7 +12575,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>729</v>
       </c>
@@ -12594,7 +12595,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>731</v>
       </c>
@@ -12614,7 +12615,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>734</v>
       </c>
@@ -12634,7 +12635,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>736</v>
       </c>
@@ -12654,7 +12655,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>738</v>
       </c>
@@ -12674,7 +12675,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>740</v>
       </c>
@@ -12694,7 +12695,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>742</v>
       </c>
@@ -12714,7 +12715,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>744</v>
       </c>
@@ -12734,7 +12735,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>746</v>
       </c>
@@ -12754,7 +12755,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>748</v>
       </c>
@@ -12774,7 +12775,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>749</v>
       </c>
@@ -12794,7 +12795,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>751</v>
       </c>
@@ -12814,7 +12815,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>754</v>
       </c>
@@ -12834,7 +12835,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>756</v>
       </c>
@@ -12854,7 +12855,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>758</v>
       </c>
@@ -12874,7 +12875,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>760</v>
       </c>
@@ -12894,7 +12895,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>762</v>
       </c>
@@ -12914,7 +12915,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>764</v>
       </c>
@@ -12934,7 +12935,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>766</v>
       </c>
@@ -12954,7 +12955,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>768</v>
       </c>
@@ -12974,7 +12975,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>771</v>
       </c>
@@ -12994,7 +12995,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>773</v>
       </c>
@@ -13014,7 +13015,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>775</v>
       </c>
@@ -13034,7 +13035,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>777</v>
       </c>
@@ -13054,7 +13055,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>779</v>
       </c>
@@ -13074,7 +13075,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>781</v>
       </c>
@@ -13094,7 +13095,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>783</v>
       </c>
@@ -13114,7 +13115,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>785</v>
       </c>
@@ -13134,7 +13135,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>787</v>
       </c>
@@ -13154,7 +13155,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>789</v>
       </c>
@@ -13174,7 +13175,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>791</v>
       </c>
@@ -13194,7 +13195,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>793</v>
       </c>
@@ -13214,7 +13215,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>795</v>
       </c>
@@ -13234,7 +13235,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>797</v>
       </c>
@@ -13254,7 +13255,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>799</v>
       </c>
@@ -13274,7 +13275,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>801</v>
       </c>
@@ -13294,7 +13295,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>803</v>
       </c>
@@ -13314,7 +13315,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>805</v>
       </c>
@@ -13334,7 +13335,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>807</v>
       </c>
@@ -13354,7 +13355,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>809</v>
       </c>
@@ -13374,7 +13375,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>811</v>
       </c>
@@ -13394,7 +13395,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>813</v>
       </c>
@@ -13414,7 +13415,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>815</v>
       </c>
@@ -13434,7 +13435,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>817</v>
       </c>
@@ -13454,7 +13455,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>819</v>
       </c>
@@ -13474,7 +13475,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>821</v>
       </c>
@@ -13494,7 +13495,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>823</v>
       </c>
@@ -13514,7 +13515,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>825</v>
       </c>
@@ -13534,7 +13535,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>827</v>
       </c>
@@ -13554,7 +13555,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>829</v>
       </c>
@@ -13574,7 +13575,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>831</v>
       </c>
@@ -13594,7 +13595,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>833</v>
       </c>
@@ -13614,7 +13615,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>836</v>
       </c>
@@ -13634,7 +13635,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>838</v>
       </c>
@@ -13654,7 +13655,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>840</v>
       </c>
@@ -13674,7 +13675,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>842</v>
       </c>
@@ -13694,7 +13695,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>844</v>
       </c>
@@ -13714,7 +13715,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>846</v>
       </c>
@@ -13734,7 +13735,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>848</v>
       </c>
@@ -13754,7 +13755,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>850</v>
       </c>
@@ -13774,7 +13775,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>853</v>
       </c>
@@ -13794,7 +13795,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>855</v>
       </c>
@@ -13814,7 +13815,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>858</v>
       </c>
@@ -13834,7 +13835,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>860</v>
       </c>
@@ -13854,7 +13855,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>862</v>
       </c>
@@ -13874,7 +13875,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>864</v>
       </c>
@@ -13894,7 +13895,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>866</v>
       </c>
@@ -13914,7 +13915,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>869</v>
       </c>
@@ -13934,7 +13935,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>871</v>
       </c>
@@ -13954,7 +13955,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>873</v>
       </c>
@@ -13974,7 +13975,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>875</v>
       </c>
@@ -13994,7 +13995,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>877</v>
       </c>
@@ -14014,7 +14015,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>879</v>
       </c>
@@ -14034,7 +14035,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>881</v>
       </c>
@@ -14054,7 +14055,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>883</v>
       </c>
@@ -14074,7 +14075,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>885</v>
       </c>
@@ -14094,7 +14095,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>887</v>
       </c>
@@ -14114,7 +14115,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>890</v>
       </c>
@@ -14134,7 +14135,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>892</v>
       </c>
@@ -14154,7 +14155,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>894</v>
       </c>
@@ -14174,7 +14175,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>896</v>
       </c>
@@ -14194,7 +14195,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>898</v>
       </c>
@@ -14214,7 +14215,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>901</v>
       </c>
@@ -14234,7 +14235,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>903</v>
       </c>
@@ -14254,7 +14255,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>905</v>
       </c>
@@ -14274,7 +14275,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>907</v>
       </c>
@@ -14294,7 +14295,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>909</v>
       </c>
@@ -14314,7 +14315,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>911</v>
       </c>
@@ -14334,7 +14335,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>913</v>
       </c>
@@ -14354,7 +14355,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>915</v>
       </c>
@@ -14374,7 +14375,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>917</v>
       </c>
@@ -14394,7 +14395,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>919</v>
       </c>
@@ -14414,7 +14415,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>921</v>
       </c>
@@ -14434,7 +14435,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>923</v>
       </c>
@@ -14454,7 +14455,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>926</v>
       </c>
@@ -14474,7 +14475,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>928</v>
       </c>
@@ -14494,7 +14495,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>930</v>
       </c>
@@ -14514,7 +14515,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>932</v>
       </c>
@@ -14534,7 +14535,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>934</v>
       </c>
@@ -14554,7 +14555,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>936</v>
       </c>
@@ -14574,7 +14575,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>938</v>
       </c>
@@ -14594,7 +14595,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>940</v>
       </c>
@@ -14614,7 +14615,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>942</v>
       </c>
@@ -14634,7 +14635,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>944</v>
       </c>
@@ -14654,7 +14655,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>946</v>
       </c>
@@ -14674,7 +14675,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>947</v>
       </c>
@@ -14694,7 +14695,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>949</v>
       </c>
@@ -14714,7 +14715,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>951</v>
       </c>
@@ -14734,7 +14735,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>953</v>
       </c>
@@ -14754,7 +14755,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>954</v>
       </c>
@@ -14774,7 +14775,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>956</v>
       </c>
@@ -14794,7 +14795,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>958</v>
       </c>
@@ -14814,7 +14815,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>960</v>
       </c>
@@ -14834,7 +14835,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>962</v>
       </c>
@@ -14854,7 +14855,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>964</v>
       </c>
@@ -14874,7 +14875,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>966</v>
       </c>
@@ -14894,7 +14895,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>968</v>
       </c>
@@ -14914,7 +14915,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>970</v>
       </c>
@@ -14934,7 +14935,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>972</v>
       </c>
@@ -14954,7 +14955,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>974</v>
       </c>
@@ -14974,7 +14975,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>976</v>
       </c>
@@ -14994,7 +14995,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>978</v>
       </c>
@@ -15014,7 +15015,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>980</v>
       </c>
@@ -15034,7 +15035,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>982</v>
       </c>
@@ -15054,7 +15055,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>984</v>
       </c>
@@ -15074,7 +15075,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>986</v>
       </c>
@@ -15094,7 +15095,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>988</v>
       </c>
@@ -15114,7 +15115,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>990</v>
       </c>
@@ -15134,7 +15135,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>992</v>
       </c>
@@ -15154,7 +15155,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>990</v>
       </c>
@@ -15174,7 +15175,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>995</v>
       </c>
@@ -15194,7 +15195,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>997</v>
       </c>
@@ -15214,7 +15215,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>999</v>
       </c>
@@ -15234,7 +15235,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>1001</v>
       </c>
@@ -15254,7 +15255,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>1004</v>
       </c>
@@ -15274,7 +15275,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>1006</v>
       </c>
@@ -15294,7 +15295,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>1008</v>
       </c>
@@ -15314,7 +15315,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>1010</v>
       </c>
@@ -15334,7 +15335,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>1012</v>
       </c>
@@ -15354,7 +15355,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>1014</v>
       </c>
@@ -15374,7 +15375,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>1016</v>
       </c>
@@ -15394,7 +15395,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>1018</v>
       </c>
@@ -15414,7 +15415,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>1021</v>
       </c>
@@ -15434,7 +15435,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>1023</v>
       </c>
@@ -15454,7 +15455,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>1025</v>
       </c>
@@ -15474,7 +15475,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>1027</v>
       </c>
@@ -15494,7 +15495,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>1029</v>
       </c>
@@ -15514,7 +15515,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>1031</v>
       </c>
@@ -15534,7 +15535,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>1033</v>
       </c>
@@ -15554,7 +15555,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>1035</v>
       </c>
@@ -15574,7 +15575,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>1037</v>
       </c>
@@ -15594,7 +15595,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>1039</v>
       </c>
@@ -15614,7 +15615,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>1041</v>
       </c>
@@ -15634,7 +15635,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>1043</v>
       </c>
@@ -15654,7 +15655,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>1045</v>
       </c>
@@ -15674,7 +15675,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>1047</v>
       </c>
@@ -15694,7 +15695,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>1049</v>
       </c>
@@ -15714,7 +15715,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>1052</v>
       </c>
@@ -15734,7 +15735,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>1054</v>
       </c>
@@ -15754,7 +15755,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>1056</v>
       </c>
@@ -15774,7 +15775,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>1058</v>
       </c>
@@ -15794,7 +15795,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>1060</v>
       </c>
@@ -15814,7 +15815,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>1062</v>
       </c>
@@ -15834,7 +15835,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>1064</v>
       </c>
@@ -15854,7 +15855,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>1066</v>
       </c>
@@ -15874,7 +15875,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>1068</v>
       </c>
@@ -15894,7 +15895,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>1070</v>
       </c>
@@ -15914,7 +15915,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>1072</v>
       </c>
@@ -15934,7 +15935,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>1074</v>
       </c>
@@ -15954,7 +15955,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>1077</v>
       </c>
@@ -15974,7 +15975,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>1079</v>
       </c>
@@ -15994,7 +15995,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>1081</v>
       </c>
@@ -16014,7 +16015,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>1083</v>
       </c>
@@ -16034,7 +16035,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>1085</v>
       </c>
@@ -16054,7 +16055,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>1087</v>
       </c>
@@ -16074,7 +16075,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>1089</v>
       </c>
@@ -16094,7 +16095,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>1091</v>
       </c>
@@ -16114,7 +16115,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>1093</v>
       </c>
@@ -16134,7 +16135,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>1094</v>
       </c>
@@ -16154,7 +16155,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>1096</v>
       </c>
@@ -16174,7 +16175,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>1098</v>
       </c>
@@ -16194,7 +16195,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>1100</v>
       </c>
@@ -16214,7 +16215,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>1102</v>
       </c>
@@ -16234,7 +16235,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>1105</v>
       </c>
@@ -16254,7 +16255,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>1107</v>
       </c>
@@ -16274,7 +16275,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>1109</v>
       </c>
@@ -16294,7 +16295,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>1112</v>
       </c>
@@ -16314,7 +16315,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>1114</v>
       </c>
@@ -16334,7 +16335,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>1116</v>
       </c>
@@ -16354,7 +16355,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>1118</v>
       </c>
@@ -16374,7 +16375,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>1120</v>
       </c>
@@ -16394,7 +16395,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>1122</v>
       </c>
@@ -16414,7 +16415,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>1125</v>
       </c>
@@ -16434,7 +16435,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>1127</v>
       </c>
@@ -16454,7 +16455,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>1129</v>
       </c>
@@ -16474,7 +16475,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>1131</v>
       </c>
@@ -16494,7 +16495,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>1133</v>
       </c>
@@ -16514,7 +16515,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>1135</v>
       </c>
@@ -16534,7 +16535,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>1137</v>
       </c>
@@ -16554,7 +16555,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>1139</v>
       </c>
@@ -16574,7 +16575,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>1141</v>
       </c>
@@ -16594,7 +16595,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>1143</v>
       </c>
@@ -16614,7 +16615,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>1145</v>
       </c>
@@ -16634,7 +16635,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>1147</v>
       </c>
@@ -16654,7 +16655,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>1149</v>
       </c>
@@ -16674,7 +16675,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>1151</v>
       </c>
@@ -16694,7 +16695,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>1154</v>
       </c>
@@ -16714,7 +16715,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>1156</v>
       </c>
@@ -16734,7 +16735,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>1158</v>
       </c>
@@ -16754,7 +16755,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>1160</v>
       </c>
@@ -16774,7 +16775,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>1163</v>
       </c>
@@ -16794,7 +16795,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>1165</v>
       </c>
@@ -16814,7 +16815,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>1167</v>
       </c>
@@ -16834,7 +16835,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>1169</v>
       </c>
@@ -16854,7 +16855,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>1171</v>
       </c>
@@ -16874,7 +16875,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>1173</v>
       </c>
@@ -16894,7 +16895,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>1175</v>
       </c>
@@ -16914,7 +16915,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="532" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>1177</v>
       </c>
@@ -16934,7 +16935,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="533" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>1179</v>
       </c>
@@ -16954,7 +16955,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="534" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>1181</v>
       </c>
@@ -16974,7 +16975,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>1183</v>
       </c>
@@ -16994,7 +16995,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="536" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>1185</v>
       </c>
@@ -17014,7 +17015,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="537" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>1188</v>
       </c>
@@ -17034,7 +17035,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="538" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>1190</v>
       </c>
@@ -17054,7 +17055,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>1193</v>
       </c>
@@ -17074,7 +17075,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="540" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>1195</v>
       </c>
@@ -17094,7 +17095,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="541" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>1197</v>
       </c>
@@ -17114,7 +17115,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="542" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>1200</v>
       </c>
@@ -17134,7 +17135,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="543" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>1202</v>
       </c>
@@ -17154,7 +17155,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="544" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>1204</v>
       </c>
@@ -17174,7 +17175,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="545" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>1206</v>
       </c>
@@ -17194,7 +17195,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="546" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>1208</v>
       </c>
@@ -17214,7 +17215,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="547" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>1210</v>
       </c>
@@ -17234,7 +17235,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="548" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>1212</v>
       </c>
@@ -17254,7 +17255,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="549" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>1214</v>
       </c>
@@ -17274,7 +17275,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="550" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>1216</v>
       </c>
@@ -17294,7 +17295,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="551" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>1218</v>
       </c>
@@ -17314,7 +17315,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="552" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>1220</v>
       </c>
@@ -17334,7 +17335,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="553" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>1222</v>
       </c>
@@ -17354,7 +17355,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="554" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>1224</v>
       </c>
@@ -17374,7 +17375,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="555" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>1226</v>
       </c>
@@ -17394,7 +17395,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="556" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>1228</v>
       </c>
@@ -17414,7 +17415,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="557" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>1230</v>
       </c>
@@ -17434,7 +17435,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="558" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>1232</v>
       </c>
@@ -17454,7 +17455,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="559" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>1234</v>
       </c>
@@ -17474,7 +17475,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="560" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>1236</v>
       </c>
@@ -17485,7 +17486,7 @@
         <v>14.49</v>
       </c>
       <c r="D560" t="s">
-        <v>613</v>
+        <v>17</v>
       </c>
       <c r="E560" t="s">
         <v>1187</v>
@@ -17494,7 +17495,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="561" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>1238</v>
       </c>
@@ -17514,7 +17515,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="562" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>1240</v>
       </c>
@@ -17534,7 +17535,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="563" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>1242</v>
       </c>
@@ -17554,7 +17555,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="564" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>1244</v>
       </c>
@@ -17574,7 +17575,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="565" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>1246</v>
       </c>
@@ -17594,7 +17595,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="566" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>1248</v>
       </c>
@@ -17614,7 +17615,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="567" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>1250</v>
       </c>
@@ -17634,7 +17635,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="568" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>1252</v>
       </c>
@@ -17654,7 +17655,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="569" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>1254</v>
       </c>
@@ -17674,7 +17675,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="570" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>1256</v>
       </c>
@@ -17694,7 +17695,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="571" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>1258</v>
       </c>
@@ -17714,7 +17715,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="572" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>1260</v>
       </c>
@@ -17734,7 +17735,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="573" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>1262</v>
       </c>
@@ -17754,7 +17755,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="574" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>1264</v>
       </c>
@@ -17774,7 +17775,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="575" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>1266</v>
       </c>
@@ -17794,7 +17795,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="576" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>1268</v>
       </c>
@@ -17814,7 +17815,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="577" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>1269</v>
       </c>
@@ -17834,7 +17835,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="578" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>1271</v>
       </c>
@@ -17854,7 +17855,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="579" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>1273</v>
       </c>
@@ -17874,7 +17875,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="580" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>1275</v>
       </c>
@@ -17894,7 +17895,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="581" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>1277</v>
       </c>
@@ -17914,7 +17915,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="582" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>1279</v>
       </c>
@@ -17934,7 +17935,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="583" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>1281</v>
       </c>
@@ -17954,7 +17955,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="584" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>1283</v>
       </c>
@@ -17974,7 +17975,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="585" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>1285</v>
       </c>
@@ -17994,7 +17995,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="586" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>1287</v>
       </c>
@@ -18014,7 +18015,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="587" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>1289</v>
       </c>
@@ -18034,7 +18035,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="588" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>1291</v>
       </c>
@@ -18054,7 +18055,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="589" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>1293</v>
       </c>
@@ -18074,7 +18075,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="590" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
         <v>1295</v>
       </c>
@@ -18094,7 +18095,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="591" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
         <v>1297</v>
       </c>
@@ -18114,7 +18115,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="592" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>1299</v>
       </c>
@@ -18134,7 +18135,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="593" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
         <v>1301</v>
       </c>
@@ -18154,7 +18155,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="594" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
         <v>1303</v>
       </c>
@@ -18174,7 +18175,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="595" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
         <v>1305</v>
       </c>
@@ -18194,7 +18195,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="596" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
         <v>1307</v>
       </c>
@@ -18214,7 +18215,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="597" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
         <v>1309</v>
       </c>
@@ -18234,7 +18235,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="598" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
         <v>1311</v>
       </c>
@@ -18254,7 +18255,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="599" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
         <v>1313</v>
       </c>
@@ -18274,7 +18275,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="600" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
         <v>1315</v>
       </c>
@@ -18294,7 +18295,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="601" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
         <v>1317</v>
       </c>
@@ -18314,7 +18315,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="602" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
         <v>1319</v>
       </c>
@@ -18334,7 +18335,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="603" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
         <v>1320</v>
       </c>
@@ -18354,7 +18355,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="604" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
         <v>1322</v>
       </c>
@@ -18374,7 +18375,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="605" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
         <v>1324</v>
       </c>
@@ -18394,7 +18395,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="606" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
         <v>1326</v>
       </c>
@@ -18414,7 +18415,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="607" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
         <v>1329</v>
       </c>
@@ -18434,7 +18435,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="608" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
         <v>1331</v>
       </c>
@@ -18454,7 +18455,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="609" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
         <v>1333</v>
       </c>
@@ -18474,7 +18475,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="610" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
         <v>1335</v>
       </c>
@@ -18494,7 +18495,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="611" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
         <v>1337</v>
       </c>
@@ -18514,7 +18515,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="612" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
         <v>1339</v>
       </c>
@@ -18534,7 +18535,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="613" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
         <v>1341</v>
       </c>
@@ -18554,7 +18555,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="614" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
         <v>1343</v>
       </c>
@@ -18574,7 +18575,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="615" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
         <v>1345</v>
       </c>
@@ -18594,7 +18595,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="616" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
         <v>1347</v>
       </c>
@@ -18614,7 +18615,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="617" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
         <v>1349</v>
       </c>
@@ -18634,7 +18635,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="618" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
         <v>1351</v>
       </c>
@@ -18654,7 +18655,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="619" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
         <v>1353</v>
       </c>
@@ -18674,7 +18675,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="620" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
         <v>1355</v>
       </c>
@@ -18694,7 +18695,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="621" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
         <v>1357</v>
       </c>
@@ -18714,7 +18715,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="622" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
         <v>1359</v>
       </c>
@@ -18734,7 +18735,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="623" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
         <v>1361</v>
       </c>
@@ -18754,7 +18755,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="624" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
         <v>1363</v>
       </c>
@@ -18774,7 +18775,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="625" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
         <v>1365</v>
       </c>
@@ -18794,7 +18795,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="626" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
         <v>1367</v>
       </c>
@@ -18814,7 +18815,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="627" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
         <v>1369</v>
       </c>
@@ -18834,7 +18835,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="628" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
         <v>1371</v>
       </c>
@@ -18854,7 +18855,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="629" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
         <v>1373</v>
       </c>
@@ -18874,7 +18875,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="630" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
         <v>1375</v>
       </c>
@@ -18894,7 +18895,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="631" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
         <v>1377</v>
       </c>
@@ -18914,7 +18915,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="632" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
         <v>1379</v>
       </c>
@@ -18934,7 +18935,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="633" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
         <v>1381</v>
       </c>
@@ -18954,7 +18955,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="634" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
         <v>1383</v>
       </c>
@@ -18974,7 +18975,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="635" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
         <v>1385</v>
       </c>
@@ -18994,7 +18995,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="636" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
         <v>1387</v>
       </c>
@@ -19014,7 +19015,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="637" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
         <v>1389</v>
       </c>
@@ -19034,7 +19035,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="638" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
         <v>1392</v>
       </c>
@@ -19054,7 +19055,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="639" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
         <v>1394</v>
       </c>
@@ -19074,7 +19075,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="640" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
         <v>1396</v>
       </c>
@@ -19094,7 +19095,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="641" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
         <v>1398</v>
       </c>
@@ -19114,7 +19115,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="642" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
         <v>1400</v>
       </c>
@@ -19134,7 +19135,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="643" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
         <v>1402</v>
       </c>
@@ -19154,7 +19155,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="644" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
         <v>1404</v>
       </c>
@@ -19174,7 +19175,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="645" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
         <v>1406</v>
       </c>
@@ -19194,7 +19195,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="646" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
         <v>1408</v>
       </c>
@@ -19214,7 +19215,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="647" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
         <v>1410</v>
       </c>
@@ -19234,7 +19235,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="648" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
         <v>1412</v>
       </c>
@@ -19254,7 +19255,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="649" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
         <v>1414</v>
       </c>
@@ -19274,7 +19275,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="650" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
         <v>1416</v>
       </c>
@@ -19294,7 +19295,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="651" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
         <v>1418</v>
       </c>
@@ -19314,7 +19315,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="652" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
         <v>1420</v>
       </c>
@@ -19334,7 +19335,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="653" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
         <v>1422</v>
       </c>
@@ -19354,7 +19355,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="654" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
         <v>1424</v>
       </c>
@@ -19374,7 +19375,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="655" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
         <v>1426</v>
       </c>
@@ -19394,7 +19395,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="656" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
         <v>1428</v>
       </c>
@@ -19414,7 +19415,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="657" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
         <v>1430</v>
       </c>
@@ -19434,7 +19435,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="658" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
         <v>1432</v>
       </c>
@@ -19454,7 +19455,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="659" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
         <v>1434</v>
       </c>
@@ -19474,7 +19475,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="660" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
         <v>1436</v>
       </c>
@@ -19494,7 +19495,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="661" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
         <v>1438</v>
       </c>
@@ -19514,7 +19515,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="662" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
         <v>1440</v>
       </c>
@@ -19534,7 +19535,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="663" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
         <v>1442</v>
       </c>
@@ -19554,7 +19555,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="664" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
         <v>1444</v>
       </c>
@@ -19574,7 +19575,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="665" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
         <v>1446</v>
       </c>
@@ -19594,7 +19595,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="666" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
         <v>1448</v>
       </c>
@@ -19614,7 +19615,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="667" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
         <v>1450</v>
       </c>
@@ -19634,7 +19635,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="668" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
         <v>1452</v>
       </c>
@@ -19654,7 +19655,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="669" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
         <v>1454</v>
       </c>
@@ -19674,7 +19675,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="670" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
         <v>1456</v>
       </c>
@@ -19694,7 +19695,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="671" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
         <v>1458</v>
       </c>
@@ -19714,7 +19715,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="672" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A672" t="s">
         <v>1461</v>
       </c>
@@ -19734,7 +19735,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="673" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
         <v>1463</v>
       </c>
@@ -19754,7 +19755,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="674" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A674" t="s">
         <v>1465</v>
       </c>
@@ -19774,7 +19775,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="675" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A675" t="s">
         <v>1467</v>
       </c>
@@ -19794,7 +19795,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="676" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A676" t="s">
         <v>1469</v>
       </c>
@@ -19814,7 +19815,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="677" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
         <v>1471</v>
       </c>
@@ -19834,7 +19835,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="678" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
         <v>1473</v>
       </c>
@@ -19854,7 +19855,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="679" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
         <v>1475</v>
       </c>
@@ -19874,7 +19875,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="680" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
         <v>1477</v>
       </c>
@@ -19894,7 +19895,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="681" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
         <v>1479</v>
       </c>
@@ -19914,7 +19915,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="682" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
         <v>1481</v>
       </c>
@@ -19934,7 +19935,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="683" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
         <v>1483</v>
       </c>
@@ -19954,7 +19955,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="684" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
         <v>1485</v>
       </c>
@@ -19974,7 +19975,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="685" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
         <v>1487</v>
       </c>
@@ -19994,7 +19995,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="686" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A686" t="s">
         <v>1489</v>
       </c>
@@ -20014,7 +20015,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="687" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A687" t="s">
         <v>1491</v>
       </c>
@@ -20034,7 +20035,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="688" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A688" t="s">
         <v>1493</v>
       </c>
@@ -20054,7 +20055,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="689" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A689" t="s">
         <v>1495</v>
       </c>
@@ -20074,7 +20075,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="690" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A690" t="s">
         <v>1497</v>
       </c>
@@ -20094,7 +20095,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="691" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A691" t="s">
         <v>1499</v>
       </c>
@@ -20114,7 +20115,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="692" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A692" t="s">
         <v>1501</v>
       </c>
@@ -20134,7 +20135,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="693" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A693" t="s">
         <v>1503</v>
       </c>
@@ -20154,7 +20155,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="694" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A694" t="s">
         <v>1505</v>
       </c>
@@ -20174,7 +20175,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="695" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A695" t="s">
         <v>1507</v>
       </c>
@@ -20194,7 +20195,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="696" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A696" t="s">
         <v>1509</v>
       </c>
@@ -20214,7 +20215,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="697" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A697" t="s">
         <v>1511</v>
       </c>
@@ -20234,7 +20235,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="698" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A698" t="s">
         <v>1513</v>
       </c>
@@ -20254,7 +20255,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="699" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A699" t="s">
         <v>1515</v>
       </c>
@@ -20274,7 +20275,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="700" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A700" t="s">
         <v>1517</v>
       </c>
@@ -20294,7 +20295,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="701" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A701" t="s">
         <v>1519</v>
       </c>
@@ -20314,7 +20315,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="702" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A702" t="s">
         <v>1521</v>
       </c>
@@ -20334,7 +20335,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="703" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A703" t="s">
         <v>1523</v>
       </c>
@@ -20354,7 +20355,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="704" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A704" t="s">
         <v>1525</v>
       </c>
@@ -20374,7 +20375,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="705" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A705" t="s">
         <v>1527</v>
       </c>
@@ -20394,7 +20395,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="706" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A706" t="s">
         <v>1529</v>
       </c>
@@ -20414,7 +20415,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="707" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A707" t="s">
         <v>1531</v>
       </c>
@@ -20434,7 +20435,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="708" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A708" t="s">
         <v>1533</v>
       </c>
@@ -20454,7 +20455,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="709" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A709" t="s">
         <v>1535</v>
       </c>
@@ -20474,7 +20475,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="710" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A710" t="s">
         <v>1537</v>
       </c>
@@ -20494,7 +20495,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="711" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A711" t="s">
         <v>1539</v>
       </c>
@@ -20514,7 +20515,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="712" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A712" t="s">
         <v>1542</v>
       </c>
@@ -20534,7 +20535,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="713" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A713" t="s">
         <v>1544</v>
       </c>
@@ -20554,7 +20555,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="714" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A714" t="s">
         <v>1546</v>
       </c>
@@ -20574,7 +20575,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="715" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A715" t="s">
         <v>1548</v>
       </c>
@@ -20594,7 +20595,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="716" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A716" t="s">
         <v>1550</v>
       </c>
@@ -20614,7 +20615,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="717" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A717" t="s">
         <v>1552</v>
       </c>
@@ -20634,7 +20635,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="718" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A718" t="s">
         <v>1554</v>
       </c>
@@ -20654,7 +20655,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="719" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A719" t="s">
         <v>1556</v>
       </c>
@@ -20674,7 +20675,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="720" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A720" t="s">
         <v>1558</v>
       </c>
@@ -20694,7 +20695,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="721" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A721" t="s">
         <v>1560</v>
       </c>
@@ -20714,7 +20715,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="722" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A722" t="s">
         <v>1562</v>
       </c>
@@ -20734,7 +20735,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="723" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A723" t="s">
         <v>1564</v>
       </c>
@@ -20754,7 +20755,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="724" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A724" t="s">
         <v>1566</v>
       </c>
@@ -20774,7 +20775,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="725" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A725" t="s">
         <v>1568</v>
       </c>
@@ -20794,7 +20795,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="726" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A726" t="s">
         <v>1570</v>
       </c>
@@ -20814,7 +20815,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="727" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A727" t="s">
         <v>1572</v>
       </c>
@@ -20834,7 +20835,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="728" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A728" t="s">
         <v>1574</v>
       </c>
@@ -20854,7 +20855,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="729" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A729" t="s">
         <v>1576</v>
       </c>
@@ -20874,7 +20875,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="730" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A730" t="s">
         <v>1578</v>
       </c>
@@ -20894,7 +20895,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="731" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A731" t="s">
         <v>1580</v>
       </c>
@@ -20914,7 +20915,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="732" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A732" t="s">
         <v>1582</v>
       </c>
@@ -20934,7 +20935,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="733" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A733" t="s">
         <v>1584</v>
       </c>
@@ -20954,7 +20955,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="734" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A734" t="s">
         <v>1586</v>
       </c>
@@ -20974,7 +20975,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="735" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A735" t="s">
         <v>1588</v>
       </c>
@@ -20994,7 +20995,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="736" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A736" t="s">
         <v>1590</v>
       </c>
@@ -21014,7 +21015,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="737" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A737" t="s">
         <v>1592</v>
       </c>
@@ -21034,7 +21035,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="738" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A738" t="s">
         <v>1594</v>
       </c>
@@ -21054,7 +21055,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="739" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A739" t="s">
         <v>1596</v>
       </c>
@@ -21074,7 +21075,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="740" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A740" t="s">
         <v>1598</v>
       </c>
@@ -21094,7 +21095,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="741" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A741" t="s">
         <v>1600</v>
       </c>
@@ -21114,7 +21115,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="742" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A742" t="s">
         <v>1602</v>
       </c>
@@ -21134,7 +21135,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="743" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A743" t="s">
         <v>1604</v>
       </c>
@@ -21154,7 +21155,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="744" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A744" t="s">
         <v>1606</v>
       </c>
@@ -21174,7 +21175,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="745" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A745" t="s">
         <v>1608</v>
       </c>
@@ -21194,7 +21195,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="746" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A746" t="s">
         <v>1610</v>
       </c>
@@ -21214,7 +21215,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="747" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A747" t="s">
         <v>1612</v>
       </c>
@@ -21234,7 +21235,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="748" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A748" t="s">
         <v>1614</v>
       </c>
@@ -21254,7 +21255,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="749" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A749" t="s">
         <v>1616</v>
       </c>
@@ -21274,7 +21275,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="750" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A750" t="s">
         <v>1618</v>
       </c>
@@ -21294,7 +21295,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="751" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A751" t="s">
         <v>1620</v>
       </c>
@@ -21314,7 +21315,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="752" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A752" t="s">
         <v>1622</v>
       </c>
@@ -21334,7 +21335,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="753" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A753" t="s">
         <v>1624</v>
       </c>
@@ -21354,7 +21355,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="754" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A754" t="s">
         <v>1626</v>
       </c>
@@ -21374,7 +21375,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="755" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A755" t="s">
         <v>1628</v>
       </c>
@@ -21394,7 +21395,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="756" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A756" t="s">
         <v>1630</v>
       </c>
@@ -21414,7 +21415,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="757" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A757" t="s">
         <v>1632</v>
       </c>
@@ -21434,7 +21435,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="758" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A758" t="s">
         <v>1634</v>
       </c>
@@ -21454,7 +21455,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="759" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A759" t="s">
         <v>1636</v>
       </c>
@@ -21474,7 +21475,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="760" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A760" t="s">
         <v>1638</v>
       </c>
@@ -21494,7 +21495,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="761" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A761" t="s">
         <v>1640</v>
       </c>
@@ -21514,7 +21515,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="762" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A762" t="s">
         <v>1642</v>
       </c>
@@ -21534,7 +21535,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="763" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A763" t="s">
         <v>1644</v>
       </c>
@@ -21554,7 +21555,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="764" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A764" t="s">
         <v>1646</v>
       </c>
@@ -21574,7 +21575,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="765" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A765" t="s">
         <v>1648</v>
       </c>
@@ -21594,7 +21595,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="766" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A766" t="s">
         <v>1650</v>
       </c>
@@ -21614,7 +21615,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="767" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A767" t="s">
         <v>1653</v>
       </c>
@@ -21634,7 +21635,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="768" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A768" t="s">
         <v>1655</v>
       </c>
@@ -21654,7 +21655,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="769" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A769" t="s">
         <v>1657</v>
       </c>
@@ -21674,7 +21675,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="770" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A770" t="s">
         <v>1659</v>
       </c>
@@ -21694,7 +21695,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="771" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A771" t="s">
         <v>1661</v>
       </c>
@@ -21714,7 +21715,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="772" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A772" t="s">
         <v>1664</v>
       </c>
@@ -21734,7 +21735,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="773" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A773" t="s">
         <v>1666</v>
       </c>
@@ -21754,7 +21755,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="774" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A774" t="s">
         <v>1668</v>
       </c>
@@ -21774,7 +21775,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="775" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A775" t="s">
         <v>1670</v>
       </c>
@@ -21794,7 +21795,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="776" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A776" t="s">
         <v>1672</v>
       </c>
@@ -21814,7 +21815,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="777" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A777" t="s">
         <v>1674</v>
       </c>
@@ -21834,7 +21835,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="778" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A778" t="s">
         <v>1676</v>
       </c>
@@ -21854,7 +21855,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="779" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A779" t="s">
         <v>1678</v>
       </c>
@@ -21874,7 +21875,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="780" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A780" t="s">
         <v>1680</v>
       </c>
@@ -21894,7 +21895,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="781" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A781" t="s">
         <v>1682</v>
       </c>
@@ -21914,7 +21915,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="782" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A782" t="s">
         <v>1684</v>
       </c>
@@ -21934,7 +21935,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="783" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A783" t="s">
         <v>1687</v>
       </c>
@@ -21954,7 +21955,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="784" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A784" t="s">
         <v>1689</v>
       </c>
@@ -21974,7 +21975,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="785" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A785" t="s">
         <v>1691</v>
       </c>
@@ -21994,7 +21995,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="786" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A786" t="s">
         <v>1693</v>
       </c>
@@ -22014,7 +22015,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="787" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A787" t="s">
         <v>1695</v>
       </c>
@@ -22034,7 +22035,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="788" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A788" t="s">
         <v>1697</v>
       </c>
@@ -22054,7 +22055,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="789" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A789" t="s">
         <v>1699</v>
       </c>
@@ -22074,7 +22075,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="790" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A790" t="s">
         <v>1701</v>
       </c>
@@ -22094,7 +22095,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="791" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A791" t="s">
         <v>1703</v>
       </c>
@@ -22114,7 +22115,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="792" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A792" t="s">
         <v>1705</v>
       </c>
@@ -22134,7 +22135,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="793" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A793" t="s">
         <v>1707</v>
       </c>
@@ -22154,7 +22155,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="794" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A794" t="s">
         <v>1709</v>
       </c>
@@ -22174,7 +22175,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="795" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A795" t="s">
         <v>1711</v>
       </c>
@@ -22194,7 +22195,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="796" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A796" t="s">
         <v>1713</v>
       </c>
@@ -22214,7 +22215,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="797" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A797" t="s">
         <v>1715</v>
       </c>
@@ -22234,7 +22235,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="798" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A798" t="s">
         <v>1717</v>
       </c>
@@ -22254,7 +22255,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="799" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A799" t="s">
         <v>1719</v>
       </c>
@@ -22274,7 +22275,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="800" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A800" t="s">
         <v>1722</v>
       </c>
@@ -22294,7 +22295,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="801" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A801" t="s">
         <v>1724</v>
       </c>
@@ -22314,7 +22315,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="802" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A802" t="s">
         <v>1726</v>
       </c>
@@ -22334,7 +22335,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="803" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A803" t="s">
         <v>1728</v>
       </c>
@@ -22354,7 +22355,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="804" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A804" t="s">
         <v>1730</v>
       </c>
@@ -22374,7 +22375,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="805" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A805" t="s">
         <v>1732</v>
       </c>
@@ -22394,7 +22395,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="806" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A806" t="s">
         <v>1734</v>
       </c>
@@ -22414,7 +22415,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="807" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A807" t="s">
         <v>1736</v>
       </c>
@@ -22434,7 +22435,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="808" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A808" t="s">
         <v>1738</v>
       </c>
@@ -22454,7 +22455,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="809" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A809" t="s">
         <v>1740</v>
       </c>
@@ -22474,7 +22475,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="810" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A810" t="s">
         <v>1742</v>
       </c>
@@ -22494,7 +22495,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="811" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A811" t="s">
         <v>1744</v>
       </c>
@@ -22514,7 +22515,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="812" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A812" t="s">
         <v>1746</v>
       </c>
@@ -22534,7 +22535,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="813" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A813" t="s">
         <v>1748</v>
       </c>
@@ -22554,7 +22555,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="814" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A814" t="s">
         <v>1750</v>
       </c>
@@ -22574,7 +22575,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="815" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A815" t="s">
         <v>1752</v>
       </c>
@@ -22594,7 +22595,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="816" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A816" t="s">
         <v>1754</v>
       </c>
@@ -22614,7 +22615,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="817" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A817" t="s">
         <v>1756</v>
       </c>
@@ -22634,7 +22635,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="818" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A818" t="s">
         <v>1758</v>
       </c>
@@ -22654,7 +22655,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="819" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A819" t="s">
         <v>1760</v>
       </c>
@@ -22674,7 +22675,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="820" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A820" t="s">
         <v>1762</v>
       </c>
@@ -22694,7 +22695,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="821" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A821" t="s">
         <v>1764</v>
       </c>
@@ -22714,7 +22715,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="822" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A822" t="s">
         <v>1766</v>
       </c>
@@ -22734,7 +22735,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="823" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A823" t="s">
         <v>1768</v>
       </c>
@@ -22754,7 +22755,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="824" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A824" t="s">
         <v>1770</v>
       </c>
@@ -22774,7 +22775,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="825" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A825" t="s">
         <v>1772</v>
       </c>
@@ -22794,7 +22795,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="826" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A826" t="s">
         <v>1774</v>
       </c>
@@ -22814,7 +22815,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="827" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A827" t="s">
         <v>1776</v>
       </c>
@@ -22834,7 +22835,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="828" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A828" t="s">
         <v>1778</v>
       </c>
@@ -22854,7 +22855,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="829" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A829" t="s">
         <v>1780</v>
       </c>
@@ -22874,7 +22875,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="830" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A830" t="s">
         <v>1782</v>
       </c>
@@ -22894,7 +22895,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="831" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A831" t="s">
         <v>1784</v>
       </c>
@@ -22914,7 +22915,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="832" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A832" t="s">
         <v>1786</v>
       </c>
@@ -22934,7 +22935,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="833" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A833" t="s">
         <v>1788</v>
       </c>
@@ -22954,7 +22955,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="834" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A834" t="s">
         <v>1790</v>
       </c>
@@ -22974,7 +22975,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="835" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A835" t="s">
         <v>1791</v>
       </c>
@@ -22994,7 +22995,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="836" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A836" t="s">
         <v>1793</v>
       </c>
@@ -23014,7 +23015,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="837" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A837" t="s">
         <v>1795</v>
       </c>
@@ -23034,7 +23035,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="838" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A838" t="s">
         <v>1797</v>
       </c>
@@ -23054,7 +23055,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="839" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A839" t="s">
         <v>1799</v>
       </c>
@@ -23074,7 +23075,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="840" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A840" t="s">
         <v>1801</v>
       </c>
@@ -23094,7 +23095,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="841" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A841" t="s">
         <v>1803</v>
       </c>
@@ -23114,7 +23115,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="842" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A842" t="s">
         <v>1805</v>
       </c>
@@ -23134,7 +23135,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="843" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A843" t="s">
         <v>1807</v>
       </c>
@@ -23154,7 +23155,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="844" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A844" t="s">
         <v>1809</v>
       </c>
@@ -23174,7 +23175,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="845" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A845" t="s">
         <v>1811</v>
       </c>
@@ -23194,7 +23195,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="846" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A846" t="s">
         <v>1813</v>
       </c>
@@ -23214,7 +23215,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="847" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A847" t="s">
         <v>1815</v>
       </c>
@@ -23234,7 +23235,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="848" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A848" t="s">
         <v>1817</v>
       </c>
@@ -23254,7 +23255,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="849" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A849" t="s">
         <v>1819</v>
       </c>
@@ -23274,7 +23275,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="850" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A850" t="s">
         <v>1821</v>
       </c>
@@ -23294,7 +23295,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="851" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A851" t="s">
         <v>1823</v>
       </c>
@@ -23314,7 +23315,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="852" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A852" t="s">
         <v>1825</v>
       </c>
@@ -23334,7 +23335,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="853" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A853" t="s">
         <v>1827</v>
       </c>
@@ -23354,7 +23355,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="854" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A854" t="s">
         <v>1829</v>
       </c>
@@ -23374,7 +23375,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="855" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A855" t="s">
         <v>1831</v>
       </c>
@@ -23394,7 +23395,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="856" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A856" t="s">
         <v>1833</v>
       </c>
@@ -23414,7 +23415,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="857" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A857" t="s">
         <v>1835</v>
       </c>
@@ -23434,7 +23435,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="858" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A858" t="s">
         <v>1837</v>
       </c>
@@ -23454,7 +23455,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="859" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A859" t="s">
         <v>1839</v>
       </c>
@@ -23474,7 +23475,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="860" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A860" t="s">
         <v>1841</v>
       </c>
@@ -23494,7 +23495,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="861" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A861" t="s">
         <v>1843</v>
       </c>
@@ -23514,7 +23515,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="862" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A862" t="s">
         <v>1845</v>
       </c>
@@ -23534,7 +23535,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="863" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A863" t="s">
         <v>1847</v>
       </c>
@@ -23554,7 +23555,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="864" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A864" t="s">
         <v>1849</v>
       </c>
@@ -23574,7 +23575,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="865" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A865" t="s">
         <v>1851</v>
       </c>
@@ -23594,7 +23595,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="866" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A866" t="s">
         <v>1853</v>
       </c>
@@ -23614,7 +23615,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="867" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A867" t="s">
         <v>1855</v>
       </c>
@@ -23634,7 +23635,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="868" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A868" t="s">
         <v>1857</v>
       </c>
@@ -23654,7 +23655,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="869" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A869" t="s">
         <v>1859</v>
       </c>
@@ -23674,7 +23675,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="870" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A870" t="s">
         <v>1861</v>
       </c>
@@ -23694,7 +23695,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="871" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A871" t="s">
         <v>1863</v>
       </c>
@@ -23714,7 +23715,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="872" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A872" t="s">
         <v>1865</v>
       </c>
@@ -23734,7 +23735,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="873" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A873" t="s">
         <v>1866</v>
       </c>
@@ -23754,7 +23755,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="874" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A874" t="s">
         <v>1868</v>
       </c>
@@ -23774,7 +23775,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="875" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A875" t="s">
         <v>1870</v>
       </c>
@@ -23794,7 +23795,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="876" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A876" t="s">
         <v>1872</v>
       </c>
@@ -23814,7 +23815,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="877" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A877" t="s">
         <v>1874</v>
       </c>
@@ -23834,7 +23835,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="878" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A878" t="s">
         <v>1876</v>
       </c>
@@ -23854,7 +23855,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="879" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A879" t="s">
         <v>1878</v>
       </c>
@@ -23874,7 +23875,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="880" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A880" t="s">
         <v>1880</v>
       </c>
@@ -23894,7 +23895,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="881" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A881" t="s">
         <v>1882</v>
       </c>
@@ -23914,7 +23915,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="882" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A882" t="s">
         <v>1884</v>
       </c>
@@ -23934,7 +23935,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="883" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A883" t="s">
         <v>1886</v>
       </c>
@@ -23954,7 +23955,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="884" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A884" t="s">
         <v>1888</v>
       </c>
@@ -23974,7 +23975,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="885" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A885" t="s">
         <v>1890</v>
       </c>
@@ -23994,7 +23995,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="886" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A886" t="s">
         <v>1892</v>
       </c>
@@ -24014,7 +24015,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="887" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A887" t="s">
         <v>1894</v>
       </c>
@@ -24034,7 +24035,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="888" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A888" t="s">
         <v>1896</v>
       </c>
@@ -24054,7 +24055,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="889" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A889" t="s">
         <v>1898</v>
       </c>
@@ -24074,7 +24075,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="890" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A890" t="s">
         <v>1900</v>
       </c>
@@ -24094,7 +24095,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="891" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A891" t="s">
         <v>1902</v>
       </c>
@@ -24114,7 +24115,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="892" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A892" t="s">
         <v>1904</v>
       </c>
@@ -24134,7 +24135,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="893" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A893" t="s">
         <v>1906</v>
       </c>
@@ -24154,7 +24155,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="894" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A894" t="s">
         <v>1908</v>
       </c>
@@ -24174,7 +24175,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="895" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A895" t="s">
         <v>1910</v>
       </c>
@@ -24194,7 +24195,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="896" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A896" t="s">
         <v>1912</v>
       </c>
@@ -24214,7 +24215,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="897" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A897" t="s">
         <v>1914</v>
       </c>
@@ -24234,7 +24235,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="898" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A898" t="s">
         <v>1916</v>
       </c>
@@ -24254,7 +24255,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="899" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A899" t="s">
         <v>1919</v>
       </c>
@@ -24274,7 +24275,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="900" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A900" t="s">
         <v>1920</v>
       </c>
@@ -24294,7 +24295,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="901" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A901" t="s">
         <v>1920</v>
       </c>
@@ -24314,7 +24315,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="902" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A902" t="s">
         <v>1923</v>
       </c>
@@ -24334,7 +24335,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="903" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A903" t="s">
         <v>1924</v>
       </c>
@@ -24354,7 +24355,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="904" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A904" t="s">
         <v>1926</v>
       </c>
@@ -24374,7 +24375,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="905" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A905" t="s">
         <v>1928</v>
       </c>
@@ -24394,7 +24395,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="906" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A906" t="s">
         <v>1930</v>
       </c>
@@ -24414,7 +24415,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="907" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A907" t="s">
         <v>1932</v>
       </c>
@@ -24434,7 +24435,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="908" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A908" t="s">
         <v>1934</v>
       </c>
@@ -24454,7 +24455,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="909" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A909" t="s">
         <v>1936</v>
       </c>
@@ -24474,7 +24475,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="910" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A910" t="s">
         <v>1938</v>
       </c>
@@ -24494,7 +24495,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="911" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A911" t="s">
         <v>1940</v>
       </c>
@@ -24514,7 +24515,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="912" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A912" t="s">
         <v>1942</v>
       </c>
@@ -24534,7 +24535,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="913" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A913" t="s">
         <v>1944</v>
       </c>
@@ -24555,7 +24556,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F913" xr:uid="{62A885C8-6EE2-4D55-B1AA-8F3B7E48DC53}"/>
+  <autoFilter ref="A1:F913" xr:uid="{62A885C8-6EE2-4D55-B1AA-8F3B7E48DC53}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="DLR"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/stocks_list.xlsx
+++ b/stocks_list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZP5922\Documents\Trading\Revolut\Revolut_app\rev_app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ML\Git_Repo\rev_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653CD8A7-6B3E-4E3E-B2E4-C95FAB7A7CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E19098-4542-4150-82B9-FEB652706139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-135" windowWidth="29040" windowHeight="15990" xr2:uid="{336D9519-7221-4D39-B2E3-6B9C561E822A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{336D9519-7221-4D39-B2E3-6B9C561E822A}"/>
   </bookViews>
   <sheets>
     <sheet name="stocks_list" sheetId="1" r:id="rId1"/>
@@ -6279,11 +6279,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B53A6498-E43B-41D9-8831-3103CA3FE4F1}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:F913"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D914" sqref="D914"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -6315,7 +6314,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -6335,7 +6334,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -6355,7 +6354,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -6375,7 +6374,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -6395,7 +6394,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -6415,7 +6414,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -6435,7 +6434,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -6455,7 +6454,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -6475,7 +6474,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -6495,7 +6494,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -6515,7 +6514,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -6535,7 +6534,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>47</v>
       </c>
@@ -6555,7 +6554,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>49</v>
       </c>
@@ -6575,7 +6574,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -6595,7 +6594,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>54</v>
       </c>
@@ -6615,7 +6614,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>57</v>
       </c>
@@ -6635,7 +6634,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>60</v>
       </c>
@@ -6655,7 +6654,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>64</v>
       </c>
@@ -6675,7 +6674,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>67</v>
       </c>
@@ -6695,7 +6694,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>69</v>
       </c>
@@ -6715,7 +6714,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>72</v>
       </c>
@@ -6735,7 +6734,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>76</v>
       </c>
@@ -6755,7 +6754,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>78</v>
       </c>
@@ -6775,7 +6774,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>81</v>
       </c>
@@ -6795,7 +6794,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>83</v>
       </c>
@@ -6815,7 +6814,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>86</v>
       </c>
@@ -6835,7 +6834,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>90</v>
       </c>
@@ -6855,7 +6854,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>93</v>
       </c>
@@ -6875,7 +6874,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>95</v>
       </c>
@@ -6895,7 +6894,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>97</v>
       </c>
@@ -6915,7 +6914,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>99</v>
       </c>
@@ -6935,7 +6934,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>101</v>
       </c>
@@ -6955,7 +6954,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>104</v>
       </c>
@@ -6975,7 +6974,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>107</v>
       </c>
@@ -6995,7 +6994,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>109</v>
       </c>
@@ -7015,7 +7014,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>112</v>
       </c>
@@ -7035,7 +7034,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>115</v>
       </c>
@@ -7055,7 +7054,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>118</v>
       </c>
@@ -7075,7 +7074,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>121</v>
       </c>
@@ -7095,7 +7094,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>125</v>
       </c>
@@ -7115,7 +7114,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>129</v>
       </c>
@@ -7135,7 +7134,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>132</v>
       </c>
@@ -7155,7 +7154,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>134</v>
       </c>
@@ -7175,7 +7174,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>137</v>
       </c>
@@ -7195,7 +7194,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>139</v>
       </c>
@@ -7215,7 +7214,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>141</v>
       </c>
@@ -7235,7 +7234,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>144</v>
       </c>
@@ -7255,7 +7254,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>146</v>
       </c>
@@ -7275,7 +7274,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>148</v>
       </c>
@@ -7295,7 +7294,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>151</v>
       </c>
@@ -7315,7 +7314,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>153</v>
       </c>
@@ -7335,7 +7334,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>155</v>
       </c>
@@ -7355,7 +7354,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>157</v>
       </c>
@@ -7375,7 +7374,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>159</v>
       </c>
@@ -7395,7 +7394,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>162</v>
       </c>
@@ -7415,7 +7414,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>165</v>
       </c>
@@ -7435,7 +7434,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>169</v>
       </c>
@@ -7455,7 +7454,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>171</v>
       </c>
@@ -7475,7 +7474,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>174</v>
       </c>
@@ -7495,7 +7494,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>176</v>
       </c>
@@ -7515,7 +7514,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>178</v>
       </c>
@@ -7535,7 +7534,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>180</v>
       </c>
@@ -7555,7 +7554,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>182</v>
       </c>
@@ -7575,7 +7574,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>184</v>
       </c>
@@ -7595,7 +7594,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>186</v>
       </c>
@@ -7615,7 +7614,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>189</v>
       </c>
@@ -7635,7 +7634,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>191</v>
       </c>
@@ -7655,7 +7654,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>193</v>
       </c>
@@ -7675,7 +7674,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>196</v>
       </c>
@@ -7695,7 +7694,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>198</v>
       </c>
@@ -7715,7 +7714,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>200</v>
       </c>
@@ -7735,7 +7734,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>204</v>
       </c>
@@ -7755,7 +7754,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>206</v>
       </c>
@@ -7775,7 +7774,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>208</v>
       </c>
@@ -7795,7 +7794,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>210</v>
       </c>
@@ -7815,7 +7814,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>213</v>
       </c>
@@ -7835,7 +7834,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>216</v>
       </c>
@@ -7855,7 +7854,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>219</v>
       </c>
@@ -7875,7 +7874,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>221</v>
       </c>
@@ -7895,7 +7894,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>223</v>
       </c>
@@ -7915,7 +7914,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>225</v>
       </c>
@@ -7935,7 +7934,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>227</v>
       </c>
@@ -7955,7 +7954,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>229</v>
       </c>
@@ -7975,7 +7974,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>232</v>
       </c>
@@ -7995,7 +7994,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>235</v>
       </c>
@@ -8015,7 +8014,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>237</v>
       </c>
@@ -8035,7 +8034,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>240</v>
       </c>
@@ -8055,7 +8054,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>243</v>
       </c>
@@ -8075,7 +8074,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>245</v>
       </c>
@@ -8095,7 +8094,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>247</v>
       </c>
@@ -8115,7 +8114,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>249</v>
       </c>
@@ -8135,7 +8134,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>251</v>
       </c>
@@ -8155,7 +8154,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>253</v>
       </c>
@@ -8175,7 +8174,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>256</v>
       </c>
@@ -8195,7 +8194,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>260</v>
       </c>
@@ -8215,7 +8214,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>262</v>
       </c>
@@ -8235,7 +8234,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>264</v>
       </c>
@@ -8255,7 +8254,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>266</v>
       </c>
@@ -8275,7 +8274,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>268</v>
       </c>
@@ -8295,7 +8294,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>270</v>
       </c>
@@ -8315,7 +8314,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>272</v>
       </c>
@@ -8335,7 +8334,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>275</v>
       </c>
@@ -8355,7 +8354,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>277</v>
       </c>
@@ -8375,7 +8374,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>279</v>
       </c>
@@ -8395,7 +8394,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>281</v>
       </c>
@@ -8415,7 +8414,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>283</v>
       </c>
@@ -8435,7 +8434,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>285</v>
       </c>
@@ -8455,7 +8454,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>287</v>
       </c>
@@ -8475,7 +8474,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>289</v>
       </c>
@@ -8495,7 +8494,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>291</v>
       </c>
@@ -8515,7 +8514,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>294</v>
       </c>
@@ -8535,7 +8534,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>297</v>
       </c>
@@ -8555,7 +8554,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>299</v>
       </c>
@@ -8575,7 +8574,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>301</v>
       </c>
@@ -8595,7 +8594,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>303</v>
       </c>
@@ -8615,7 +8614,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>305</v>
       </c>
@@ -8635,7 +8634,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>307</v>
       </c>
@@ -8655,7 +8654,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>310</v>
       </c>
@@ -8675,7 +8674,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>312</v>
       </c>
@@ -8695,7 +8694,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>314</v>
       </c>
@@ -8715,7 +8714,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>317</v>
       </c>
@@ -8735,7 +8734,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>320</v>
       </c>
@@ -8755,7 +8754,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>322</v>
       </c>
@@ -8775,7 +8774,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>324</v>
       </c>
@@ -8795,7 +8794,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>326</v>
       </c>
@@ -8815,7 +8814,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>328</v>
       </c>
@@ -8835,7 +8834,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>330</v>
       </c>
@@ -8855,7 +8854,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>332</v>
       </c>
@@ -8875,7 +8874,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>334</v>
       </c>
@@ -8895,7 +8894,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>336</v>
       </c>
@@ -8915,7 +8914,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>338</v>
       </c>
@@ -8935,7 +8934,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>341</v>
       </c>
@@ -8955,7 +8954,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>344</v>
       </c>
@@ -8975,7 +8974,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>346</v>
       </c>
@@ -8995,7 +8994,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>348</v>
       </c>
@@ -9015,7 +9014,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>350</v>
       </c>
@@ -9035,7 +9034,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>352</v>
       </c>
@@ -9055,7 +9054,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>354</v>
       </c>
@@ -9075,7 +9074,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>356</v>
       </c>
@@ -9095,7 +9094,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>359</v>
       </c>
@@ -9115,7 +9114,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>360</v>
       </c>
@@ -9135,7 +9134,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>362</v>
       </c>
@@ -9155,7 +9154,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>364</v>
       </c>
@@ -9175,7 +9174,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>366</v>
       </c>
@@ -9195,7 +9194,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>368</v>
       </c>
@@ -9215,7 +9214,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>371</v>
       </c>
@@ -9235,7 +9234,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>373</v>
       </c>
@@ -9255,7 +9254,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>375</v>
       </c>
@@ -9275,7 +9274,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>377</v>
       </c>
@@ -9295,7 +9294,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>379</v>
       </c>
@@ -9315,7 +9314,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>383</v>
       </c>
@@ -9335,7 +9334,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>386</v>
       </c>
@@ -9355,7 +9354,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>388</v>
       </c>
@@ -9375,7 +9374,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>390</v>
       </c>
@@ -9395,7 +9394,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>393</v>
       </c>
@@ -9415,7 +9414,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>396</v>
       </c>
@@ -9435,7 +9434,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>399</v>
       </c>
@@ -9455,7 +9454,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>401</v>
       </c>
@@ -9475,7 +9474,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>403</v>
       </c>
@@ -9495,7 +9494,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>405</v>
       </c>
@@ -9515,7 +9514,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>408</v>
       </c>
@@ -9535,7 +9534,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>410</v>
       </c>
@@ -9555,7 +9554,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>412</v>
       </c>
@@ -9575,7 +9574,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>414</v>
       </c>
@@ -9595,7 +9594,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>416</v>
       </c>
@@ -9615,7 +9614,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>419</v>
       </c>
@@ -9635,7 +9634,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>421</v>
       </c>
@@ -9655,7 +9654,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>423</v>
       </c>
@@ -9675,7 +9674,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>425</v>
       </c>
@@ -9695,7 +9694,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>427</v>
       </c>
@@ -9715,7 +9714,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>429</v>
       </c>
@@ -9735,7 +9734,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>432</v>
       </c>
@@ -9755,7 +9754,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>434</v>
       </c>
@@ -9775,7 +9774,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>436</v>
       </c>
@@ -9795,7 +9794,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>438</v>
       </c>
@@ -9815,7 +9814,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>440</v>
       </c>
@@ -9835,7 +9834,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>442</v>
       </c>
@@ -9855,7 +9854,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>444</v>
       </c>
@@ -9875,7 +9874,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>446</v>
       </c>
@@ -9895,7 +9894,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>448</v>
       </c>
@@ -9915,7 +9914,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>451</v>
       </c>
@@ -9935,7 +9934,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>453</v>
       </c>
@@ -9955,7 +9954,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>456</v>
       </c>
@@ -9975,7 +9974,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>458</v>
       </c>
@@ -9995,7 +9994,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>460</v>
       </c>
@@ -10015,7 +10014,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>462</v>
       </c>
@@ -10035,7 +10034,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>464</v>
       </c>
@@ -10055,7 +10054,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>466</v>
       </c>
@@ -10075,7 +10074,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>468</v>
       </c>
@@ -10095,7 +10094,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>470</v>
       </c>
@@ -10115,7 +10114,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>472</v>
       </c>
@@ -10135,7 +10134,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>474</v>
       </c>
@@ -10155,7 +10154,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>476</v>
       </c>
@@ -10175,7 +10174,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>478</v>
       </c>
@@ -10195,7 +10194,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>480</v>
       </c>
@@ -10215,7 +10214,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>482</v>
       </c>
@@ -10235,7 +10234,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>484</v>
       </c>
@@ -10255,7 +10254,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>486</v>
       </c>
@@ -10275,7 +10274,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>488</v>
       </c>
@@ -10295,7 +10294,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>490</v>
       </c>
@@ -10315,7 +10314,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>492</v>
       </c>
@@ -10335,7 +10334,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>494</v>
       </c>
@@ -10355,7 +10354,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>496</v>
       </c>
@@ -10375,7 +10374,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>498</v>
       </c>
@@ -10395,7 +10394,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>500</v>
       </c>
@@ -10415,7 +10414,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>502</v>
       </c>
@@ -10435,7 +10434,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>504</v>
       </c>
@@ -10455,7 +10454,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>506</v>
       </c>
@@ -10475,7 +10474,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>508</v>
       </c>
@@ -10495,7 +10494,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>510</v>
       </c>
@@ -10515,7 +10514,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>512</v>
       </c>
@@ -10535,7 +10534,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>515</v>
       </c>
@@ -10555,7 +10554,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>517</v>
       </c>
@@ -10575,7 +10574,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>519</v>
       </c>
@@ -10595,7 +10594,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>521</v>
       </c>
@@ -10615,7 +10614,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="217" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>523</v>
       </c>
@@ -10635,7 +10634,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>525</v>
       </c>
@@ -10655,7 +10654,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="219" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>527</v>
       </c>
@@ -10675,7 +10674,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>529</v>
       </c>
@@ -10695,7 +10694,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>531</v>
       </c>
@@ -10715,7 +10714,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>533</v>
       </c>
@@ -10735,7 +10734,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>535</v>
       </c>
@@ -10755,7 +10754,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>538</v>
       </c>
@@ -10775,7 +10774,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="225" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>540</v>
       </c>
@@ -10795,7 +10794,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="226" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>542</v>
       </c>
@@ -10815,7 +10814,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="227" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>545</v>
       </c>
@@ -10835,7 +10834,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="228" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>547</v>
       </c>
@@ -10855,7 +10854,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="229" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>549</v>
       </c>
@@ -10875,7 +10874,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="230" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>552</v>
       </c>
@@ -10895,7 +10894,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="231" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>555</v>
       </c>
@@ -10915,7 +10914,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="232" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>558</v>
       </c>
@@ -10935,7 +10934,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="233" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>560</v>
       </c>
@@ -10955,7 +10954,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="234" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>562</v>
       </c>
@@ -10975,7 +10974,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="235" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>564</v>
       </c>
@@ -10995,7 +10994,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="236" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>566</v>
       </c>
@@ -11015,7 +11014,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="237" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>568</v>
       </c>
@@ -11035,7 +11034,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="238" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>570</v>
       </c>
@@ -11055,7 +11054,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="239" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>572</v>
       </c>
@@ -11075,7 +11074,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="240" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>574</v>
       </c>
@@ -11095,7 +11094,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="241" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>577</v>
       </c>
@@ -11115,7 +11114,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="242" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>579</v>
       </c>
@@ -11135,7 +11134,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="243" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>581</v>
       </c>
@@ -11155,7 +11154,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="244" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>584</v>
       </c>
@@ -11175,7 +11174,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="245" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>586</v>
       </c>
@@ -11195,7 +11194,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="246" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>588</v>
       </c>
@@ -11215,7 +11214,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="247" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>591</v>
       </c>
@@ -11235,7 +11234,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="248" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>593</v>
       </c>
@@ -11255,7 +11254,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="249" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>595</v>
       </c>
@@ -11275,7 +11274,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="250" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>598</v>
       </c>
@@ -11295,7 +11294,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="251" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>600</v>
       </c>
@@ -11315,7 +11314,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="252" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>602</v>
       </c>
@@ -11335,7 +11334,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="253" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>604</v>
       </c>
@@ -11355,7 +11354,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="254" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>604</v>
       </c>
@@ -11375,7 +11374,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="255" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>607</v>
       </c>
@@ -11395,7 +11394,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="256" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>609</v>
       </c>
@@ -11435,7 +11434,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="258" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>614</v>
       </c>
@@ -11455,7 +11454,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="259" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>616</v>
       </c>
@@ -11475,7 +11474,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="260" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>618</v>
       </c>
@@ -11495,7 +11494,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="261" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>620</v>
       </c>
@@ -11515,7 +11514,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="262" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>622</v>
       </c>
@@ -11535,7 +11534,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="263" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>624</v>
       </c>
@@ -11555,7 +11554,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="264" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>626</v>
       </c>
@@ -11575,7 +11574,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="265" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>628</v>
       </c>
@@ -11595,7 +11594,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="266" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>630</v>
       </c>
@@ -11615,7 +11614,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="267" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>632</v>
       </c>
@@ -11635,7 +11634,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="268" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>634</v>
       </c>
@@ -11655,7 +11654,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="269" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>636</v>
       </c>
@@ -11675,7 +11674,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="270" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>638</v>
       </c>
@@ -11695,7 +11694,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="271" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>640</v>
       </c>
@@ -11715,7 +11714,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="272" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>642</v>
       </c>
@@ -11735,7 +11734,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="273" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>644</v>
       </c>
@@ -11755,7 +11754,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="274" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>646</v>
       </c>
@@ -11775,7 +11774,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="275" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>648</v>
       </c>
@@ -11795,7 +11794,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="276" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>650</v>
       </c>
@@ -11815,7 +11814,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="277" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>652</v>
       </c>
@@ -11835,7 +11834,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="278" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>654</v>
       </c>
@@ -11855,7 +11854,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="279" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>656</v>
       </c>
@@ -11875,7 +11874,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="280" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>658</v>
       </c>
@@ -11895,7 +11894,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="281" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>660</v>
       </c>
@@ -11915,7 +11914,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="282" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>662</v>
       </c>
@@ -11935,7 +11934,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="283" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>664</v>
       </c>
@@ -11955,7 +11954,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="284" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>666</v>
       </c>
@@ -11975,7 +11974,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="285" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>668</v>
       </c>
@@ -11995,7 +11994,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="286" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>670</v>
       </c>
@@ -12015,7 +12014,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="287" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>672</v>
       </c>
@@ -12035,7 +12034,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="288" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>674</v>
       </c>
@@ -12055,7 +12054,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="289" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>676</v>
       </c>
@@ -12075,7 +12074,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="290" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>678</v>
       </c>
@@ -12095,7 +12094,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="291" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>680</v>
       </c>
@@ -12115,7 +12114,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="292" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>682</v>
       </c>
@@ -12135,7 +12134,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="293" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>684</v>
       </c>
@@ -12155,7 +12154,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="294" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>686</v>
       </c>
@@ -12175,7 +12174,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="295" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>688</v>
       </c>
@@ -12195,7 +12194,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="296" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>690</v>
       </c>
@@ -12215,7 +12214,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="297" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>692</v>
       </c>
@@ -12235,7 +12234,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="298" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>694</v>
       </c>
@@ -12255,7 +12254,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="299" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>696</v>
       </c>
@@ -12275,7 +12274,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="300" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>698</v>
       </c>
@@ -12295,7 +12294,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="301" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>700</v>
       </c>
@@ -12315,7 +12314,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="302" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>702</v>
       </c>
@@ -12335,7 +12334,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="303" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>704</v>
       </c>
@@ -12355,7 +12354,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="304" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>706</v>
       </c>
@@ -12375,7 +12374,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="305" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>708</v>
       </c>
@@ -12395,7 +12394,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="306" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>710</v>
       </c>
@@ -12415,7 +12414,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="307" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>712</v>
       </c>
@@ -12435,7 +12434,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="308" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>714</v>
       </c>
@@ -12455,7 +12454,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="309" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>716</v>
       </c>
@@ -12475,7 +12474,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="310" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>718</v>
       </c>
@@ -12495,7 +12494,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="311" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>720</v>
       </c>
@@ -12515,7 +12514,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="312" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>723</v>
       </c>
@@ -12535,7 +12534,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="313" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>725</v>
       </c>
@@ -12555,7 +12554,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="314" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>727</v>
       </c>
@@ -12575,7 +12574,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="315" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>729</v>
       </c>
@@ -12595,7 +12594,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="316" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>731</v>
       </c>
@@ -12615,7 +12614,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="317" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>734</v>
       </c>
@@ -12635,7 +12634,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="318" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>736</v>
       </c>
@@ -12655,7 +12654,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="319" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>738</v>
       </c>
@@ -12675,7 +12674,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="320" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>740</v>
       </c>
@@ -12695,7 +12694,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="321" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>742</v>
       </c>
@@ -12715,7 +12714,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="322" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>744</v>
       </c>
@@ -12735,7 +12734,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="323" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>746</v>
       </c>
@@ -12755,7 +12754,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="324" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>748</v>
       </c>
@@ -12775,7 +12774,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="325" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>749</v>
       </c>
@@ -12795,7 +12794,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="326" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>751</v>
       </c>
@@ -12815,7 +12814,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="327" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>754</v>
       </c>
@@ -12835,7 +12834,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="328" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>756</v>
       </c>
@@ -12855,7 +12854,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="329" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>758</v>
       </c>
@@ -12875,7 +12874,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="330" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>760</v>
       </c>
@@ -12895,7 +12894,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="331" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>762</v>
       </c>
@@ -12915,7 +12914,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="332" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>764</v>
       </c>
@@ -12935,7 +12934,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="333" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>766</v>
       </c>
@@ -12955,7 +12954,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="334" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>768</v>
       </c>
@@ -12975,7 +12974,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="335" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>771</v>
       </c>
@@ -12995,7 +12994,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="336" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>773</v>
       </c>
@@ -13015,7 +13014,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="337" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>775</v>
       </c>
@@ -13035,7 +13034,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="338" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>777</v>
       </c>
@@ -13055,7 +13054,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="339" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>779</v>
       </c>
@@ -13075,7 +13074,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="340" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>781</v>
       </c>
@@ -13095,7 +13094,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="341" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>783</v>
       </c>
@@ -13115,7 +13114,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="342" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>785</v>
       </c>
@@ -13135,7 +13134,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="343" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>787</v>
       </c>
@@ -13155,7 +13154,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="344" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>789</v>
       </c>
@@ -13175,7 +13174,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="345" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>791</v>
       </c>
@@ -13195,7 +13194,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="346" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>793</v>
       </c>
@@ -13215,7 +13214,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="347" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>795</v>
       </c>
@@ -13235,7 +13234,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="348" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>797</v>
       </c>
@@ -13255,7 +13254,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="349" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>799</v>
       </c>
@@ -13275,7 +13274,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="350" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>801</v>
       </c>
@@ -13295,7 +13294,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="351" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>803</v>
       </c>
@@ -13315,7 +13314,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="352" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>805</v>
       </c>
@@ -13335,7 +13334,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="353" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>807</v>
       </c>
@@ -13355,7 +13354,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="354" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>809</v>
       </c>
@@ -13375,7 +13374,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="355" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>811</v>
       </c>
@@ -13395,7 +13394,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="356" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>813</v>
       </c>
@@ -13415,7 +13414,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="357" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>815</v>
       </c>
@@ -13435,7 +13434,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="358" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>817</v>
       </c>
@@ -13455,7 +13454,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="359" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>819</v>
       </c>
@@ -13475,7 +13474,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="360" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>821</v>
       </c>
@@ -13495,7 +13494,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="361" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>823</v>
       </c>
@@ -13515,7 +13514,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="362" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>825</v>
       </c>
@@ -13535,7 +13534,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="363" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>827</v>
       </c>
@@ -13555,7 +13554,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="364" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>829</v>
       </c>
@@ -13575,7 +13574,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="365" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>831</v>
       </c>
@@ -13595,7 +13594,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="366" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>833</v>
       </c>
@@ -13615,7 +13614,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="367" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>836</v>
       </c>
@@ -13635,7 +13634,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="368" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>838</v>
       </c>
@@ -13655,7 +13654,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="369" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>840</v>
       </c>
@@ -13675,7 +13674,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="370" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>842</v>
       </c>
@@ -13695,7 +13694,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="371" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>844</v>
       </c>
@@ -13715,7 +13714,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="372" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>846</v>
       </c>
@@ -13735,7 +13734,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="373" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>848</v>
       </c>
@@ -13755,7 +13754,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="374" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>850</v>
       </c>
@@ -13775,7 +13774,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="375" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>853</v>
       </c>
@@ -13795,7 +13794,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="376" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>855</v>
       </c>
@@ -13815,7 +13814,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="377" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>858</v>
       </c>
@@ -13835,7 +13834,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="378" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>860</v>
       </c>
@@ -13855,7 +13854,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="379" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>862</v>
       </c>
@@ -13875,7 +13874,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="380" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>864</v>
       </c>
@@ -13895,7 +13894,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="381" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>866</v>
       </c>
@@ -13915,7 +13914,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="382" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>869</v>
       </c>
@@ -13935,7 +13934,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="383" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>871</v>
       </c>
@@ -13955,7 +13954,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="384" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>873</v>
       </c>
@@ -13975,7 +13974,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="385" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>875</v>
       </c>
@@ -13995,7 +13994,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="386" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>877</v>
       </c>
@@ -14015,7 +14014,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="387" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>879</v>
       </c>
@@ -14035,7 +14034,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="388" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>881</v>
       </c>
@@ -14055,7 +14054,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="389" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>883</v>
       </c>
@@ -14075,7 +14074,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="390" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>885</v>
       </c>
@@ -14095,7 +14094,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="391" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>887</v>
       </c>
@@ -14115,7 +14114,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="392" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>890</v>
       </c>
@@ -14135,7 +14134,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="393" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>892</v>
       </c>
@@ -14155,7 +14154,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="394" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>894</v>
       </c>
@@ -14175,7 +14174,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="395" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>896</v>
       </c>
@@ -14195,7 +14194,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="396" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>898</v>
       </c>
@@ -14215,7 +14214,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="397" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>901</v>
       </c>
@@ -14235,7 +14234,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="398" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>903</v>
       </c>
@@ -14255,7 +14254,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="399" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>905</v>
       </c>
@@ -14275,7 +14274,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="400" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>907</v>
       </c>
@@ -14295,7 +14294,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="401" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>909</v>
       </c>
@@ -14315,7 +14314,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="402" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>911</v>
       </c>
@@ -14335,7 +14334,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="403" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>913</v>
       </c>
@@ -14355,7 +14354,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="404" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>915</v>
       </c>
@@ -14375,7 +14374,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="405" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>917</v>
       </c>
@@ -14395,7 +14394,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="406" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>919</v>
       </c>
@@ -14415,7 +14414,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="407" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>921</v>
       </c>
@@ -14435,7 +14434,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="408" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>923</v>
       </c>
@@ -14455,7 +14454,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="409" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>926</v>
       </c>
@@ -14475,7 +14474,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="410" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>928</v>
       </c>
@@ -14495,7 +14494,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="411" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>930</v>
       </c>
@@ -14515,7 +14514,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="412" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>932</v>
       </c>
@@ -14535,7 +14534,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="413" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>934</v>
       </c>
@@ -14555,7 +14554,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="414" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>936</v>
       </c>
@@ -14575,7 +14574,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="415" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>938</v>
       </c>
@@ -14595,7 +14594,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="416" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>940</v>
       </c>
@@ -14615,7 +14614,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="417" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>942</v>
       </c>
@@ -14635,7 +14634,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="418" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>944</v>
       </c>
@@ -14655,7 +14654,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="419" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>946</v>
       </c>
@@ -14675,7 +14674,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="420" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>947</v>
       </c>
@@ -14695,7 +14694,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="421" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>949</v>
       </c>
@@ -14715,7 +14714,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="422" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>951</v>
       </c>
@@ -14735,7 +14734,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="423" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>953</v>
       </c>
@@ -14755,7 +14754,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="424" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>954</v>
       </c>
@@ -14775,7 +14774,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="425" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>956</v>
       </c>
@@ -14795,7 +14794,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="426" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>958</v>
       </c>
@@ -14815,7 +14814,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="427" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>960</v>
       </c>
@@ -14835,7 +14834,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="428" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>962</v>
       </c>
@@ -14855,7 +14854,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="429" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>964</v>
       </c>
@@ -14875,7 +14874,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="430" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>966</v>
       </c>
@@ -14895,7 +14894,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="431" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>968</v>
       </c>
@@ -14915,7 +14914,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="432" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>970</v>
       </c>
@@ -14935,7 +14934,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="433" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>972</v>
       </c>
@@ -14955,7 +14954,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="434" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>974</v>
       </c>
@@ -14975,7 +14974,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="435" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>976</v>
       </c>
@@ -14995,7 +14994,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="436" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>978</v>
       </c>
@@ -15015,7 +15014,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="437" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>980</v>
       </c>
@@ -15035,7 +15034,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="438" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>982</v>
       </c>
@@ -15055,7 +15054,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="439" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>984</v>
       </c>
@@ -15075,7 +15074,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="440" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>986</v>
       </c>
@@ -15095,7 +15094,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="441" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>988</v>
       </c>
@@ -15115,7 +15114,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="442" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>990</v>
       </c>
@@ -15135,7 +15134,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="443" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>992</v>
       </c>
@@ -15155,7 +15154,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="444" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>990</v>
       </c>
@@ -15175,7 +15174,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="445" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>995</v>
       </c>
@@ -15195,7 +15194,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="446" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>997</v>
       </c>
@@ -15215,7 +15214,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="447" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>999</v>
       </c>
@@ -15235,7 +15234,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="448" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>1001</v>
       </c>
@@ -15255,7 +15254,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="449" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>1004</v>
       </c>
@@ -15275,7 +15274,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="450" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>1006</v>
       </c>
@@ -15295,7 +15294,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="451" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>1008</v>
       </c>
@@ -15315,7 +15314,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="452" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>1010</v>
       </c>
@@ -15335,7 +15334,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="453" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>1012</v>
       </c>
@@ -15355,7 +15354,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="454" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>1014</v>
       </c>
@@ -15375,7 +15374,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="455" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>1016</v>
       </c>
@@ -15395,7 +15394,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="456" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>1018</v>
       </c>
@@ -15415,7 +15414,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="457" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>1021</v>
       </c>
@@ -15435,7 +15434,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="458" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>1023</v>
       </c>
@@ -15455,7 +15454,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="459" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>1025</v>
       </c>
@@ -15475,7 +15474,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="460" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>1027</v>
       </c>
@@ -15495,7 +15494,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="461" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>1029</v>
       </c>
@@ -15515,7 +15514,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="462" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>1031</v>
       </c>
@@ -15535,7 +15534,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="463" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>1033</v>
       </c>
@@ -15555,7 +15554,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="464" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>1035</v>
       </c>
@@ -15575,7 +15574,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="465" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>1037</v>
       </c>
@@ -15595,7 +15594,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="466" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>1039</v>
       </c>
@@ -15615,7 +15614,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="467" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>1041</v>
       </c>
@@ -15635,7 +15634,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="468" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>1043</v>
       </c>
@@ -15655,7 +15654,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="469" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>1045</v>
       </c>
@@ -15675,7 +15674,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="470" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>1047</v>
       </c>
@@ -15695,7 +15694,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="471" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>1049</v>
       </c>
@@ -15715,7 +15714,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="472" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>1052</v>
       </c>
@@ -15735,7 +15734,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="473" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>1054</v>
       </c>
@@ -15755,7 +15754,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="474" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>1056</v>
       </c>
@@ -15775,7 +15774,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="475" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>1058</v>
       </c>
@@ -15795,7 +15794,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="476" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>1060</v>
       </c>
@@ -15815,7 +15814,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="477" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>1062</v>
       </c>
@@ -15835,7 +15834,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="478" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>1064</v>
       </c>
@@ -15855,7 +15854,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="479" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>1066</v>
       </c>
@@ -15875,7 +15874,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="480" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>1068</v>
       </c>
@@ -15895,7 +15894,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="481" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>1070</v>
       </c>
@@ -15915,7 +15914,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="482" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>1072</v>
       </c>
@@ -15935,7 +15934,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="483" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>1074</v>
       </c>
@@ -15955,7 +15954,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="484" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>1077</v>
       </c>
@@ -15975,7 +15974,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="485" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>1079</v>
       </c>
@@ -15995,7 +15994,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="486" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>1081</v>
       </c>
@@ -16015,7 +16014,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="487" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>1083</v>
       </c>
@@ -16035,7 +16034,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="488" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>1085</v>
       </c>
@@ -16055,7 +16054,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="489" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>1087</v>
       </c>
@@ -16075,7 +16074,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="490" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>1089</v>
       </c>
@@ -16095,7 +16094,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="491" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>1091</v>
       </c>
@@ -16115,7 +16114,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="492" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>1093</v>
       </c>
@@ -16135,7 +16134,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="493" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>1094</v>
       </c>
@@ -16155,7 +16154,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="494" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>1096</v>
       </c>
@@ -16175,7 +16174,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="495" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>1098</v>
       </c>
@@ -16195,7 +16194,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="496" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>1100</v>
       </c>
@@ -16215,7 +16214,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="497" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>1102</v>
       </c>
@@ -16235,7 +16234,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="498" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>1105</v>
       </c>
@@ -16255,7 +16254,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="499" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>1107</v>
       </c>
@@ -16275,7 +16274,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="500" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>1109</v>
       </c>
@@ -16295,7 +16294,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="501" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>1112</v>
       </c>
@@ -16315,7 +16314,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="502" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>1114</v>
       </c>
@@ -16335,7 +16334,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="503" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>1116</v>
       </c>
@@ -16355,7 +16354,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="504" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>1118</v>
       </c>
@@ -16375,7 +16374,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="505" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>1120</v>
       </c>
@@ -16395,7 +16394,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="506" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>1122</v>
       </c>
@@ -16415,7 +16414,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="507" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>1125</v>
       </c>
@@ -16435,7 +16434,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="508" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>1127</v>
       </c>
@@ -16455,7 +16454,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="509" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>1129</v>
       </c>
@@ -16475,7 +16474,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="510" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>1131</v>
       </c>
@@ -16495,7 +16494,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="511" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>1133</v>
       </c>
@@ -16515,7 +16514,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="512" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>1135</v>
       </c>
@@ -16535,7 +16534,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="513" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>1137</v>
       </c>
@@ -16555,7 +16554,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="514" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>1139</v>
       </c>
@@ -16575,7 +16574,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="515" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>1141</v>
       </c>
@@ -16595,7 +16594,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="516" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>1143</v>
       </c>
@@ -16615,7 +16614,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="517" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>1145</v>
       </c>
@@ -16635,7 +16634,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="518" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>1147</v>
       </c>
@@ -16655,7 +16654,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="519" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>1149</v>
       </c>
@@ -16675,7 +16674,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="520" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>1151</v>
       </c>
@@ -16695,7 +16694,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="521" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>1154</v>
       </c>
@@ -16715,7 +16714,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="522" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>1156</v>
       </c>
@@ -16735,7 +16734,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="523" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>1158</v>
       </c>
@@ -16755,7 +16754,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="524" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>1160</v>
       </c>
@@ -16775,7 +16774,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="525" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>1163</v>
       </c>
@@ -16795,7 +16794,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="526" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>1165</v>
       </c>
@@ -16815,7 +16814,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="527" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>1167</v>
       </c>
@@ -16835,7 +16834,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="528" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>1169</v>
       </c>
@@ -16855,7 +16854,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="529" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>1171</v>
       </c>
@@ -16875,7 +16874,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="530" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>1173</v>
       </c>
@@ -16895,7 +16894,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="531" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>1175</v>
       </c>
@@ -16915,7 +16914,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="532" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>1177</v>
       </c>
@@ -16935,7 +16934,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="533" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>1179</v>
       </c>
@@ -16955,7 +16954,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="534" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>1181</v>
       </c>
@@ -16975,7 +16974,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="535" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>1183</v>
       </c>
@@ -16995,7 +16994,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="536" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>1185</v>
       </c>
@@ -17015,7 +17014,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="537" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>1188</v>
       </c>
@@ -17035,7 +17034,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="538" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>1190</v>
       </c>
@@ -17055,7 +17054,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="539" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>1193</v>
       </c>
@@ -17075,7 +17074,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="540" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>1195</v>
       </c>
@@ -17095,7 +17094,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="541" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>1197</v>
       </c>
@@ -17115,7 +17114,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="542" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>1200</v>
       </c>
@@ -17135,7 +17134,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="543" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>1202</v>
       </c>
@@ -17155,7 +17154,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="544" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>1204</v>
       </c>
@@ -17175,7 +17174,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="545" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>1206</v>
       </c>
@@ -17195,7 +17194,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="546" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>1208</v>
       </c>
@@ -17215,7 +17214,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="547" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>1210</v>
       </c>
@@ -17235,7 +17234,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="548" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>1212</v>
       </c>
@@ -17255,7 +17254,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="549" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>1214</v>
       </c>
@@ -17275,7 +17274,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="550" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>1216</v>
       </c>
@@ -17295,7 +17294,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="551" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>1218</v>
       </c>
@@ -17315,7 +17314,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="552" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>1220</v>
       </c>
@@ -17335,7 +17334,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="553" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>1222</v>
       </c>
@@ -17355,7 +17354,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="554" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>1224</v>
       </c>
@@ -17375,7 +17374,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="555" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>1226</v>
       </c>
@@ -17395,7 +17394,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="556" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>1228</v>
       </c>
@@ -17415,7 +17414,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="557" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>1230</v>
       </c>
@@ -17435,7 +17434,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="558" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>1232</v>
       </c>
@@ -17455,7 +17454,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="559" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>1234</v>
       </c>
@@ -17475,7 +17474,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="560" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>1236</v>
       </c>
@@ -17495,7 +17494,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="561" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>1238</v>
       </c>
@@ -17515,7 +17514,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="562" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>1240</v>
       </c>
@@ -17535,7 +17534,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="563" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>1242</v>
       </c>
@@ -17555,7 +17554,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="564" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>1244</v>
       </c>
@@ -17575,7 +17574,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="565" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>1246</v>
       </c>
@@ -17595,7 +17594,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="566" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>1248</v>
       </c>
@@ -17615,7 +17614,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="567" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>1250</v>
       </c>
@@ -17635,7 +17634,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="568" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>1252</v>
       </c>
@@ -17655,7 +17654,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="569" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>1254</v>
       </c>
@@ -17675,7 +17674,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="570" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>1256</v>
       </c>
@@ -17695,7 +17694,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="571" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>1258</v>
       </c>
@@ -17715,7 +17714,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="572" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>1260</v>
       </c>
@@ -17735,7 +17734,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="573" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>1262</v>
       </c>
@@ -17755,7 +17754,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="574" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>1264</v>
       </c>
@@ -17775,7 +17774,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="575" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>1266</v>
       </c>
@@ -17795,7 +17794,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="576" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>1268</v>
       </c>
@@ -17815,7 +17814,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="577" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>1269</v>
       </c>
@@ -17835,7 +17834,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="578" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>1271</v>
       </c>
@@ -17855,7 +17854,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="579" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>1273</v>
       </c>
@@ -17875,7 +17874,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="580" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>1275</v>
       </c>
@@ -17895,7 +17894,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="581" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>1277</v>
       </c>
@@ -17915,7 +17914,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="582" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>1279</v>
       </c>
@@ -17935,7 +17934,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="583" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>1281</v>
       </c>
@@ -17955,7 +17954,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="584" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>1283</v>
       </c>
@@ -17975,7 +17974,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="585" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>1285</v>
       </c>
@@ -17995,7 +17994,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="586" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>1287</v>
       </c>
@@ -18015,7 +18014,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="587" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>1289</v>
       </c>
@@ -18035,7 +18034,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="588" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>1291</v>
       </c>
@@ -18055,7 +18054,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="589" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>1293</v>
       </c>
@@ -18075,7 +18074,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="590" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
         <v>1295</v>
       </c>
@@ -18095,7 +18094,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="591" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
         <v>1297</v>
       </c>
@@ -18115,7 +18114,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="592" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>1299</v>
       </c>
@@ -18135,7 +18134,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="593" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
         <v>1301</v>
       </c>
@@ -18155,7 +18154,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="594" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
         <v>1303</v>
       </c>
@@ -18175,7 +18174,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="595" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
         <v>1305</v>
       </c>
@@ -18195,7 +18194,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="596" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
         <v>1307</v>
       </c>
@@ -18215,7 +18214,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="597" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
         <v>1309</v>
       </c>
@@ -18235,7 +18234,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="598" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
         <v>1311</v>
       </c>
@@ -18255,7 +18254,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="599" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
         <v>1313</v>
       </c>
@@ -18275,7 +18274,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="600" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
         <v>1315</v>
       </c>
@@ -18295,7 +18294,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="601" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
         <v>1317</v>
       </c>
@@ -18315,7 +18314,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="602" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
         <v>1319</v>
       </c>
@@ -18335,7 +18334,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="603" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
         <v>1320</v>
       </c>
@@ -18355,7 +18354,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="604" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
         <v>1322</v>
       </c>
@@ -18375,7 +18374,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="605" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
         <v>1324</v>
       </c>
@@ -18395,7 +18394,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="606" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
         <v>1326</v>
       </c>
@@ -18415,7 +18414,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="607" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
         <v>1329</v>
       </c>
@@ -18435,7 +18434,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="608" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
         <v>1331</v>
       </c>
@@ -18455,7 +18454,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="609" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
         <v>1333</v>
       </c>
@@ -18475,7 +18474,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="610" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
         <v>1335</v>
       </c>
@@ -18495,7 +18494,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="611" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
         <v>1337</v>
       </c>
@@ -18515,7 +18514,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="612" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
         <v>1339</v>
       </c>
@@ -18535,7 +18534,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="613" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
         <v>1341</v>
       </c>
@@ -18555,7 +18554,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="614" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
         <v>1343</v>
       </c>
@@ -18575,7 +18574,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="615" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
         <v>1345</v>
       </c>
@@ -18595,7 +18594,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="616" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
         <v>1347</v>
       </c>
@@ -18615,7 +18614,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="617" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
         <v>1349</v>
       </c>
@@ -18635,7 +18634,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="618" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
         <v>1351</v>
       </c>
@@ -18655,7 +18654,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="619" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
         <v>1353</v>
       </c>
@@ -18675,7 +18674,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="620" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
         <v>1355</v>
       </c>
@@ -18695,7 +18694,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="621" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
         <v>1357</v>
       </c>
@@ -18715,7 +18714,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="622" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
         <v>1359</v>
       </c>
@@ -18735,7 +18734,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="623" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
         <v>1361</v>
       </c>
@@ -18755,7 +18754,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="624" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
         <v>1363</v>
       </c>
@@ -18775,7 +18774,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="625" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
         <v>1365</v>
       </c>
@@ -18795,7 +18794,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="626" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
         <v>1367</v>
       </c>
@@ -18815,7 +18814,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="627" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
         <v>1369</v>
       </c>
@@ -18835,7 +18834,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="628" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
         <v>1371</v>
       </c>
@@ -18855,7 +18854,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="629" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
         <v>1373</v>
       </c>
@@ -18875,7 +18874,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="630" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
         <v>1375</v>
       </c>
@@ -18895,7 +18894,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="631" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
         <v>1377</v>
       </c>
@@ -18915,7 +18914,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="632" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
         <v>1379</v>
       </c>
@@ -18935,7 +18934,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="633" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
         <v>1381</v>
       </c>
@@ -18955,7 +18954,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="634" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
         <v>1383</v>
       </c>
@@ -18975,7 +18974,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="635" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
         <v>1385</v>
       </c>
@@ -18995,7 +18994,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="636" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
         <v>1387</v>
       </c>
@@ -19015,7 +19014,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="637" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
         <v>1389</v>
       </c>
@@ -19035,7 +19034,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="638" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
         <v>1392</v>
       </c>
@@ -19055,7 +19054,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="639" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
         <v>1394</v>
       </c>
@@ -19075,7 +19074,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="640" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
         <v>1396</v>
       </c>
@@ -19095,7 +19094,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="641" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
         <v>1398</v>
       </c>
@@ -19115,7 +19114,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="642" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
         <v>1400</v>
       </c>
@@ -19135,7 +19134,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="643" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
         <v>1402</v>
       </c>
@@ -19155,7 +19154,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="644" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
         <v>1404</v>
       </c>
@@ -19175,7 +19174,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="645" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
         <v>1406</v>
       </c>
@@ -19195,7 +19194,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="646" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
         <v>1408</v>
       </c>
@@ -19215,7 +19214,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="647" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
         <v>1410</v>
       </c>
@@ -19235,7 +19234,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="648" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
         <v>1412</v>
       </c>
@@ -19255,7 +19254,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="649" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
         <v>1414</v>
       </c>
@@ -19275,7 +19274,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="650" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
         <v>1416</v>
       </c>
@@ -19295,7 +19294,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="651" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
         <v>1418</v>
       </c>
@@ -19315,7 +19314,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="652" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
         <v>1420</v>
       </c>
@@ -19335,7 +19334,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="653" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
         <v>1422</v>
       </c>
@@ -19355,7 +19354,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="654" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
         <v>1424</v>
       </c>
@@ -19375,7 +19374,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="655" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
         <v>1426</v>
       </c>
@@ -19395,7 +19394,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="656" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
         <v>1428</v>
       </c>
@@ -19415,7 +19414,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="657" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
         <v>1430</v>
       </c>
@@ -19435,7 +19434,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="658" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
         <v>1432</v>
       </c>
@@ -19455,7 +19454,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="659" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
         <v>1434</v>
       </c>
@@ -19475,7 +19474,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="660" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
         <v>1436</v>
       </c>
@@ -19495,7 +19494,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="661" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
         <v>1438</v>
       </c>
@@ -19515,7 +19514,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="662" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
         <v>1440</v>
       </c>
@@ -19535,7 +19534,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="663" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
         <v>1442</v>
       </c>
@@ -19555,7 +19554,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="664" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
         <v>1444</v>
       </c>
@@ -19575,7 +19574,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="665" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
         <v>1446</v>
       </c>
@@ -19595,7 +19594,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="666" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
         <v>1448</v>
       </c>
@@ -19615,7 +19614,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="667" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
         <v>1450</v>
       </c>
@@ -19635,7 +19634,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="668" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
         <v>1452</v>
       </c>
@@ -19655,7 +19654,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="669" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
         <v>1454</v>
       </c>
@@ -19675,7 +19674,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="670" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
         <v>1456</v>
       </c>
@@ -19695,7 +19694,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="671" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
         <v>1458</v>
       </c>
@@ -19715,7 +19714,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="672" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A672" t="s">
         <v>1461</v>
       </c>
@@ -19735,7 +19734,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="673" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
         <v>1463</v>
       </c>
@@ -19755,7 +19754,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="674" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A674" t="s">
         <v>1465</v>
       </c>
@@ -19775,7 +19774,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="675" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A675" t="s">
         <v>1467</v>
       </c>
@@ -19795,7 +19794,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="676" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A676" t="s">
         <v>1469</v>
       </c>
@@ -19815,7 +19814,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="677" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
         <v>1471</v>
       </c>
@@ -19835,7 +19834,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="678" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
         <v>1473</v>
       </c>
@@ -19855,7 +19854,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="679" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
         <v>1475</v>
       </c>
@@ -19875,7 +19874,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="680" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
         <v>1477</v>
       </c>
@@ -19895,7 +19894,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="681" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
         <v>1479</v>
       </c>
@@ -19915,7 +19914,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="682" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
         <v>1481</v>
       </c>
@@ -19935,7 +19934,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="683" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
         <v>1483</v>
       </c>
@@ -19955,7 +19954,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="684" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
         <v>1485</v>
       </c>
@@ -19975,7 +19974,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="685" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
         <v>1487</v>
       </c>
@@ -19995,7 +19994,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="686" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A686" t="s">
         <v>1489</v>
       </c>
@@ -20015,7 +20014,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="687" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A687" t="s">
         <v>1491</v>
       </c>
@@ -20035,7 +20034,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="688" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A688" t="s">
         <v>1493</v>
       </c>
@@ -20055,7 +20054,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="689" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A689" t="s">
         <v>1495</v>
       </c>
@@ -20075,7 +20074,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="690" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A690" t="s">
         <v>1497</v>
       </c>
@@ -20095,7 +20094,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="691" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A691" t="s">
         <v>1499</v>
       </c>
@@ -20115,7 +20114,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="692" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A692" t="s">
         <v>1501</v>
       </c>
@@ -20135,7 +20134,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="693" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A693" t="s">
         <v>1503</v>
       </c>
@@ -20155,7 +20154,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="694" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A694" t="s">
         <v>1505</v>
       </c>
@@ -20175,7 +20174,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="695" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A695" t="s">
         <v>1507</v>
       </c>
@@ -20195,7 +20194,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="696" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A696" t="s">
         <v>1509</v>
       </c>
@@ -20215,7 +20214,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="697" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A697" t="s">
         <v>1511</v>
       </c>
@@ -20235,7 +20234,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="698" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A698" t="s">
         <v>1513</v>
       </c>
@@ -20255,7 +20254,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="699" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A699" t="s">
         <v>1515</v>
       </c>
@@ -20275,7 +20274,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="700" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A700" t="s">
         <v>1517</v>
       </c>
@@ -20295,7 +20294,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="701" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A701" t="s">
         <v>1519</v>
       </c>
@@ -20315,7 +20314,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="702" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A702" t="s">
         <v>1521</v>
       </c>
@@ -20335,7 +20334,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="703" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A703" t="s">
         <v>1523</v>
       </c>
@@ -20355,7 +20354,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="704" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A704" t="s">
         <v>1525</v>
       </c>
@@ -20375,7 +20374,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="705" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A705" t="s">
         <v>1527</v>
       </c>
@@ -20395,7 +20394,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="706" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A706" t="s">
         <v>1529</v>
       </c>
@@ -20415,7 +20414,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="707" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A707" t="s">
         <v>1531</v>
       </c>
@@ -20435,7 +20434,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="708" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A708" t="s">
         <v>1533</v>
       </c>
@@ -20455,7 +20454,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="709" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A709" t="s">
         <v>1535</v>
       </c>
@@ -20475,7 +20474,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="710" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A710" t="s">
         <v>1537</v>
       </c>
@@ -20495,7 +20494,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="711" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A711" t="s">
         <v>1539</v>
       </c>
@@ -20515,7 +20514,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="712" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A712" t="s">
         <v>1542</v>
       </c>
@@ -20535,7 +20534,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="713" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A713" t="s">
         <v>1544</v>
       </c>
@@ -20555,7 +20554,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="714" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A714" t="s">
         <v>1546</v>
       </c>
@@ -20575,7 +20574,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="715" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A715" t="s">
         <v>1548</v>
       </c>
@@ -20595,7 +20594,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="716" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A716" t="s">
         <v>1550</v>
       </c>
@@ -20615,7 +20614,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="717" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A717" t="s">
         <v>1552</v>
       </c>
@@ -20635,7 +20634,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="718" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A718" t="s">
         <v>1554</v>
       </c>
@@ -20655,7 +20654,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="719" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A719" t="s">
         <v>1556</v>
       </c>
@@ -20675,7 +20674,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="720" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A720" t="s">
         <v>1558</v>
       </c>
@@ -20695,7 +20694,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="721" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A721" t="s">
         <v>1560</v>
       </c>
@@ -20715,7 +20714,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="722" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A722" t="s">
         <v>1562</v>
       </c>
@@ -20735,7 +20734,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="723" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A723" t="s">
         <v>1564</v>
       </c>
@@ -20755,7 +20754,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="724" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A724" t="s">
         <v>1566</v>
       </c>
@@ -20775,7 +20774,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="725" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A725" t="s">
         <v>1568</v>
       </c>
@@ -20795,7 +20794,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="726" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A726" t="s">
         <v>1570</v>
       </c>
@@ -20815,7 +20814,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="727" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A727" t="s">
         <v>1572</v>
       </c>
@@ -20835,7 +20834,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="728" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A728" t="s">
         <v>1574</v>
       </c>
@@ -20855,7 +20854,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="729" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A729" t="s">
         <v>1576</v>
       </c>
@@ -20875,7 +20874,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="730" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A730" t="s">
         <v>1578</v>
       </c>
@@ -20895,7 +20894,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="731" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A731" t="s">
         <v>1580</v>
       </c>
@@ -20915,7 +20914,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="732" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A732" t="s">
         <v>1582</v>
       </c>
@@ -20935,7 +20934,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="733" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A733" t="s">
         <v>1584</v>
       </c>
@@ -20955,7 +20954,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="734" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A734" t="s">
         <v>1586</v>
       </c>
@@ -20975,7 +20974,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="735" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A735" t="s">
         <v>1588</v>
       </c>
@@ -20995,7 +20994,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="736" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A736" t="s">
         <v>1590</v>
       </c>
@@ -21015,7 +21014,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="737" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A737" t="s">
         <v>1592</v>
       </c>
@@ -21035,7 +21034,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="738" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A738" t="s">
         <v>1594</v>
       </c>
@@ -21055,7 +21054,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="739" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A739" t="s">
         <v>1596</v>
       </c>
@@ -21075,7 +21074,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="740" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A740" t="s">
         <v>1598</v>
       </c>
@@ -21095,7 +21094,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="741" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A741" t="s">
         <v>1600</v>
       </c>
@@ -21115,7 +21114,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="742" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A742" t="s">
         <v>1602</v>
       </c>
@@ -21135,7 +21134,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="743" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A743" t="s">
         <v>1604</v>
       </c>
@@ -21155,7 +21154,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="744" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A744" t="s">
         <v>1606</v>
       </c>
@@ -21175,7 +21174,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="745" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A745" t="s">
         <v>1608</v>
       </c>
@@ -21195,7 +21194,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="746" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A746" t="s">
         <v>1610</v>
       </c>
@@ -21215,7 +21214,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="747" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A747" t="s">
         <v>1612</v>
       </c>
@@ -21235,7 +21234,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="748" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A748" t="s">
         <v>1614</v>
       </c>
@@ -21255,7 +21254,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="749" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A749" t="s">
         <v>1616</v>
       </c>
@@ -21275,7 +21274,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="750" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A750" t="s">
         <v>1618</v>
       </c>
@@ -21295,7 +21294,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="751" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A751" t="s">
         <v>1620</v>
       </c>
@@ -21315,7 +21314,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="752" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A752" t="s">
         <v>1622</v>
       </c>
@@ -21335,7 +21334,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="753" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A753" t="s">
         <v>1624</v>
       </c>
@@ -21355,7 +21354,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="754" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A754" t="s">
         <v>1626</v>
       </c>
@@ -21375,7 +21374,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="755" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A755" t="s">
         <v>1628</v>
       </c>
@@ -21395,7 +21394,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="756" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A756" t="s">
         <v>1630</v>
       </c>
@@ -21415,7 +21414,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="757" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A757" t="s">
         <v>1632</v>
       </c>
@@ -21435,7 +21434,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="758" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A758" t="s">
         <v>1634</v>
       </c>
@@ -21455,7 +21454,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="759" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A759" t="s">
         <v>1636</v>
       </c>
@@ -21475,7 +21474,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="760" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A760" t="s">
         <v>1638</v>
       </c>
@@ -21495,7 +21494,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="761" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A761" t="s">
         <v>1640</v>
       </c>
@@ -21515,7 +21514,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="762" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A762" t="s">
         <v>1642</v>
       </c>
@@ -21535,7 +21534,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="763" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A763" t="s">
         <v>1644</v>
       </c>
@@ -21555,7 +21554,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="764" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A764" t="s">
         <v>1646</v>
       </c>
@@ -21575,7 +21574,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="765" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A765" t="s">
         <v>1648</v>
       </c>
@@ -21595,7 +21594,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="766" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A766" t="s">
         <v>1650</v>
       </c>
@@ -21615,7 +21614,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="767" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A767" t="s">
         <v>1653</v>
       </c>
@@ -21635,7 +21634,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="768" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A768" t="s">
         <v>1655</v>
       </c>
@@ -21655,7 +21654,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="769" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A769" t="s">
         <v>1657</v>
       </c>
@@ -21675,7 +21674,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="770" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A770" t="s">
         <v>1659</v>
       </c>
@@ -21695,7 +21694,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="771" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A771" t="s">
         <v>1661</v>
       </c>
@@ -21715,7 +21714,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="772" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A772" t="s">
         <v>1664</v>
       </c>
@@ -21735,7 +21734,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="773" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A773" t="s">
         <v>1666</v>
       </c>
@@ -21755,7 +21754,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="774" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A774" t="s">
         <v>1668</v>
       </c>
@@ -21775,7 +21774,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="775" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A775" t="s">
         <v>1670</v>
       </c>
@@ -21795,7 +21794,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="776" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A776" t="s">
         <v>1672</v>
       </c>
@@ -21815,7 +21814,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="777" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A777" t="s">
         <v>1674</v>
       </c>
@@ -21835,7 +21834,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="778" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A778" t="s">
         <v>1676</v>
       </c>
@@ -21855,7 +21854,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="779" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A779" t="s">
         <v>1678</v>
       </c>
@@ -21875,7 +21874,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="780" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A780" t="s">
         <v>1680</v>
       </c>
@@ -21895,7 +21894,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="781" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A781" t="s">
         <v>1682</v>
       </c>
@@ -21915,7 +21914,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="782" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A782" t="s">
         <v>1684</v>
       </c>
@@ -21935,7 +21934,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="783" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A783" t="s">
         <v>1687</v>
       </c>
@@ -21955,7 +21954,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="784" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A784" t="s">
         <v>1689</v>
       </c>
@@ -21975,7 +21974,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="785" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A785" t="s">
         <v>1691</v>
       </c>
@@ -21995,7 +21994,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="786" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A786" t="s">
         <v>1693</v>
       </c>
@@ -22015,7 +22014,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="787" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A787" t="s">
         <v>1695</v>
       </c>
@@ -22035,7 +22034,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="788" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A788" t="s">
         <v>1697</v>
       </c>
@@ -22055,7 +22054,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="789" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A789" t="s">
         <v>1699</v>
       </c>
@@ -22075,7 +22074,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="790" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A790" t="s">
         <v>1701</v>
       </c>
@@ -22095,7 +22094,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="791" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A791" t="s">
         <v>1703</v>
       </c>
@@ -22115,7 +22114,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="792" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A792" t="s">
         <v>1705</v>
       </c>
@@ -22135,7 +22134,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="793" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A793" t="s">
         <v>1707</v>
       </c>
@@ -22155,7 +22154,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="794" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A794" t="s">
         <v>1709</v>
       </c>
@@ -22175,7 +22174,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="795" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A795" t="s">
         <v>1711</v>
       </c>
@@ -22195,7 +22194,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="796" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A796" t="s">
         <v>1713</v>
       </c>
@@ -22215,7 +22214,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="797" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A797" t="s">
         <v>1715</v>
       </c>
@@ -22235,7 +22234,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="798" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A798" t="s">
         <v>1717</v>
       </c>
@@ -22255,7 +22254,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="799" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A799" t="s">
         <v>1719</v>
       </c>
@@ -22275,7 +22274,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="800" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A800" t="s">
         <v>1722</v>
       </c>
@@ -22295,7 +22294,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="801" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A801" t="s">
         <v>1724</v>
       </c>
@@ -22315,7 +22314,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="802" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A802" t="s">
         <v>1726</v>
       </c>
@@ -22335,7 +22334,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="803" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A803" t="s">
         <v>1728</v>
       </c>
@@ -22355,7 +22354,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="804" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A804" t="s">
         <v>1730</v>
       </c>
@@ -22375,7 +22374,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="805" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A805" t="s">
         <v>1732</v>
       </c>
@@ -22395,7 +22394,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="806" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A806" t="s">
         <v>1734</v>
       </c>
@@ -22415,7 +22414,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="807" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A807" t="s">
         <v>1736</v>
       </c>
@@ -22435,7 +22434,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="808" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A808" t="s">
         <v>1738</v>
       </c>
@@ -22455,7 +22454,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="809" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A809" t="s">
         <v>1740</v>
       </c>
@@ -22475,7 +22474,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="810" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A810" t="s">
         <v>1742</v>
       </c>
@@ -22495,7 +22494,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="811" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A811" t="s">
         <v>1744</v>
       </c>
@@ -22515,7 +22514,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="812" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A812" t="s">
         <v>1746</v>
       </c>
@@ -22535,7 +22534,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="813" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A813" t="s">
         <v>1748</v>
       </c>
@@ -22555,7 +22554,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="814" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A814" t="s">
         <v>1750</v>
       </c>
@@ -22575,7 +22574,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="815" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A815" t="s">
         <v>1752</v>
       </c>
@@ -22595,7 +22594,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="816" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A816" t="s">
         <v>1754</v>
       </c>
@@ -22615,7 +22614,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="817" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A817" t="s">
         <v>1756</v>
       </c>
@@ -22635,7 +22634,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="818" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A818" t="s">
         <v>1758</v>
       </c>
@@ -22655,7 +22654,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="819" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A819" t="s">
         <v>1760</v>
       </c>
@@ -22675,7 +22674,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="820" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A820" t="s">
         <v>1762</v>
       </c>
@@ -22695,7 +22694,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="821" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A821" t="s">
         <v>1764</v>
       </c>
@@ -22715,7 +22714,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="822" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A822" t="s">
         <v>1766</v>
       </c>
@@ -22735,7 +22734,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="823" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A823" t="s">
         <v>1768</v>
       </c>
@@ -22755,7 +22754,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="824" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A824" t="s">
         <v>1770</v>
       </c>
@@ -22775,7 +22774,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="825" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A825" t="s">
         <v>1772</v>
       </c>
@@ -22795,7 +22794,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="826" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A826" t="s">
         <v>1774</v>
       </c>
@@ -22815,7 +22814,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="827" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A827" t="s">
         <v>1776</v>
       </c>
@@ -22835,7 +22834,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="828" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A828" t="s">
         <v>1778</v>
       </c>
@@ -22855,7 +22854,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="829" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A829" t="s">
         <v>1780</v>
       </c>
@@ -22875,7 +22874,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="830" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A830" t="s">
         <v>1782</v>
       </c>
@@ -22895,7 +22894,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="831" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A831" t="s">
         <v>1784</v>
       </c>
@@ -22915,7 +22914,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="832" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A832" t="s">
         <v>1786</v>
       </c>
@@ -22935,7 +22934,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="833" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A833" t="s">
         <v>1788</v>
       </c>
@@ -22955,7 +22954,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="834" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A834" t="s">
         <v>1790</v>
       </c>
@@ -22975,7 +22974,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="835" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A835" t="s">
         <v>1791</v>
       </c>
@@ -22995,7 +22994,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="836" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A836" t="s">
         <v>1793</v>
       </c>
@@ -23015,7 +23014,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="837" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A837" t="s">
         <v>1795</v>
       </c>
@@ -23035,7 +23034,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="838" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A838" t="s">
         <v>1797</v>
       </c>
@@ -23055,7 +23054,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="839" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A839" t="s">
         <v>1799</v>
       </c>
@@ -23075,7 +23074,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="840" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A840" t="s">
         <v>1801</v>
       </c>
@@ -23095,7 +23094,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="841" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A841" t="s">
         <v>1803</v>
       </c>
@@ -23115,7 +23114,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="842" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A842" t="s">
         <v>1805</v>
       </c>
@@ -23135,7 +23134,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="843" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A843" t="s">
         <v>1807</v>
       </c>
@@ -23155,7 +23154,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="844" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A844" t="s">
         <v>1809</v>
       </c>
@@ -23175,7 +23174,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="845" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A845" t="s">
         <v>1811</v>
       </c>
@@ -23195,7 +23194,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="846" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A846" t="s">
         <v>1813</v>
       </c>
@@ -23215,7 +23214,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="847" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A847" t="s">
         <v>1815</v>
       </c>
@@ -23235,7 +23234,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="848" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A848" t="s">
         <v>1817</v>
       </c>
@@ -23255,7 +23254,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="849" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A849" t="s">
         <v>1819</v>
       </c>
@@ -23275,7 +23274,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="850" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A850" t="s">
         <v>1821</v>
       </c>
@@ -23295,7 +23294,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="851" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A851" t="s">
         <v>1823</v>
       </c>
@@ -23315,7 +23314,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="852" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A852" t="s">
         <v>1825</v>
       </c>
@@ -23335,7 +23334,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="853" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A853" t="s">
         <v>1827</v>
       </c>
@@ -23355,7 +23354,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="854" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A854" t="s">
         <v>1829</v>
       </c>
@@ -23375,7 +23374,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="855" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A855" t="s">
         <v>1831</v>
       </c>
@@ -23395,7 +23394,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="856" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A856" t="s">
         <v>1833</v>
       </c>
@@ -23415,7 +23414,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="857" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A857" t="s">
         <v>1835</v>
       </c>
@@ -23435,7 +23434,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="858" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A858" t="s">
         <v>1837</v>
       </c>
@@ -23455,7 +23454,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="859" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A859" t="s">
         <v>1839</v>
       </c>
@@ -23475,7 +23474,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="860" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A860" t="s">
         <v>1841</v>
       </c>
@@ -23495,7 +23494,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="861" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A861" t="s">
         <v>1843</v>
       </c>
@@ -23515,7 +23514,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="862" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A862" t="s">
         <v>1845</v>
       </c>
@@ -23535,7 +23534,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="863" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A863" t="s">
         <v>1847</v>
       </c>
@@ -23555,7 +23554,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="864" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A864" t="s">
         <v>1849</v>
       </c>
@@ -23575,7 +23574,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="865" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A865" t="s">
         <v>1851</v>
       </c>
@@ -23595,7 +23594,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="866" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A866" t="s">
         <v>1853</v>
       </c>
@@ -23615,7 +23614,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="867" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A867" t="s">
         <v>1855</v>
       </c>
@@ -23635,7 +23634,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="868" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A868" t="s">
         <v>1857</v>
       </c>
@@ -23655,7 +23654,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="869" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A869" t="s">
         <v>1859</v>
       </c>
@@ -23675,7 +23674,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="870" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A870" t="s">
         <v>1861</v>
       </c>
@@ -23695,7 +23694,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="871" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A871" t="s">
         <v>1863</v>
       </c>
@@ -23715,7 +23714,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="872" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A872" t="s">
         <v>1865</v>
       </c>
@@ -23735,7 +23734,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="873" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A873" t="s">
         <v>1866</v>
       </c>
@@ -23755,7 +23754,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="874" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A874" t="s">
         <v>1868</v>
       </c>
@@ -23775,7 +23774,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="875" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A875" t="s">
         <v>1870</v>
       </c>
@@ -23795,7 +23794,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="876" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A876" t="s">
         <v>1872</v>
       </c>
@@ -23815,7 +23814,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="877" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A877" t="s">
         <v>1874</v>
       </c>
@@ -23835,7 +23834,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="878" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A878" t="s">
         <v>1876</v>
       </c>
@@ -23855,7 +23854,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="879" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A879" t="s">
         <v>1878</v>
       </c>
@@ -23875,7 +23874,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="880" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A880" t="s">
         <v>1880</v>
       </c>
@@ -23895,7 +23894,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="881" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A881" t="s">
         <v>1882</v>
       </c>
@@ -23915,7 +23914,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="882" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A882" t="s">
         <v>1884</v>
       </c>
@@ -23935,7 +23934,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="883" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A883" t="s">
         <v>1886</v>
       </c>
@@ -23955,7 +23954,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="884" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A884" t="s">
         <v>1888</v>
       </c>
@@ -23975,7 +23974,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="885" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A885" t="s">
         <v>1890</v>
       </c>
@@ -23995,7 +23994,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="886" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A886" t="s">
         <v>1892</v>
       </c>
@@ -24015,7 +24014,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="887" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A887" t="s">
         <v>1894</v>
       </c>
@@ -24035,7 +24034,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="888" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A888" t="s">
         <v>1896</v>
       </c>
@@ -24055,7 +24054,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="889" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A889" t="s">
         <v>1898</v>
       </c>
@@ -24075,7 +24074,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="890" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A890" t="s">
         <v>1900</v>
       </c>
@@ -24095,7 +24094,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="891" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A891" t="s">
         <v>1902</v>
       </c>
@@ -24115,7 +24114,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="892" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A892" t="s">
         <v>1904</v>
       </c>
@@ -24135,7 +24134,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="893" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A893" t="s">
         <v>1906</v>
       </c>
@@ -24155,7 +24154,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="894" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A894" t="s">
         <v>1908</v>
       </c>
@@ -24175,7 +24174,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="895" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A895" t="s">
         <v>1910</v>
       </c>
@@ -24195,7 +24194,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="896" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A896" t="s">
         <v>1912</v>
       </c>
@@ -24215,7 +24214,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="897" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A897" t="s">
         <v>1914</v>
       </c>
@@ -24235,7 +24234,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="898" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A898" t="s">
         <v>1916</v>
       </c>
@@ -24255,7 +24254,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="899" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A899" t="s">
         <v>1919</v>
       </c>
@@ -24275,7 +24274,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="900" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A900" t="s">
         <v>1920</v>
       </c>
@@ -24295,7 +24294,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="901" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A901" t="s">
         <v>1920</v>
       </c>
@@ -24315,7 +24314,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="902" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A902" t="s">
         <v>1923</v>
       </c>
@@ -24335,7 +24334,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="903" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A903" t="s">
         <v>1924</v>
       </c>
@@ -24355,7 +24354,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="904" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A904" t="s">
         <v>1926</v>
       </c>
@@ -24375,7 +24374,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="905" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A905" t="s">
         <v>1928</v>
       </c>
@@ -24395,7 +24394,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="906" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A906" t="s">
         <v>1930</v>
       </c>
@@ -24415,7 +24414,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="907" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A907" t="s">
         <v>1932</v>
       </c>
@@ -24435,7 +24434,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="908" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A908" t="s">
         <v>1934</v>
       </c>
@@ -24455,7 +24454,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="909" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A909" t="s">
         <v>1936</v>
       </c>
@@ -24475,7 +24474,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="910" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A910" t="s">
         <v>1938</v>
       </c>
@@ -24495,7 +24494,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="911" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A911" t="s">
         <v>1940</v>
       </c>
@@ -24515,7 +24514,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="912" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A912" t="s">
         <v>1942</v>
       </c>
@@ -24535,7 +24534,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="913" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A913" t="s">
         <v>1944</v>
       </c>
@@ -24556,13 +24555,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F913" xr:uid="{62A885C8-6EE2-4D55-B1AA-8F3B7E48DC53}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="DLR"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:F913" xr:uid="{62A885C8-6EE2-4D55-B1AA-8F3B7E48DC53}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
